--- a/data/trans_orig/P23-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P23-Edad-trans_orig.xlsx
@@ -743,19 +743,19 @@
         <v>275670</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>253517</v>
+        <v>253159</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>298907</v>
+        <v>296615</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.5591428808387346</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.5142095971871727</v>
+        <v>0.513484756628146</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.6062757333129911</v>
+        <v>0.6016258086981011</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>296</v>
@@ -764,19 +764,19 @@
         <v>283161</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>263718</v>
+        <v>263528</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>304606</v>
+        <v>303133</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.6057060690556264</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.5641167094114669</v>
+        <v>0.5637086648712973</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.6515799031639555</v>
+        <v>0.6484279644747398</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>577</v>
@@ -785,19 +785,19 @@
         <v>558831</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>527738</v>
+        <v>527962</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>589007</v>
+        <v>589222</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.5818055987816172</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.5494347294868196</v>
+        <v>0.5496683470858834</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.6132227300444016</v>
+        <v>0.6134466391279056</v>
       </c>
     </row>
     <row r="5">
@@ -814,19 +814,19 @@
         <v>11288</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>5779</v>
+        <v>6308</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>19605</v>
+        <v>20613</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.02289606006358953</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.01172146224438348</v>
+        <v>0.01279501391524561</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.03976590016431907</v>
+        <v>0.041809139662158</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>15</v>
@@ -835,19 +835,19 @@
         <v>15442</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>9024</v>
+        <v>8807</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>25072</v>
+        <v>24574</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.03303276786865025</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.01930299143520736</v>
+        <v>0.01883955201558297</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.05363159356538055</v>
+        <v>0.05256574820742316</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>26</v>
@@ -856,19 +856,19 @@
         <v>26731</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>17601</v>
+        <v>18081</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>37750</v>
+        <v>40076</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.02782968593099029</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.0183248921133501</v>
+        <v>0.01882429917867679</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.03930204415284124</v>
+        <v>0.0417232576163672</v>
       </c>
     </row>
     <row r="6">
@@ -885,19 +885,19 @@
         <v>25404</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>16749</v>
+        <v>17726</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>36339</v>
+        <v>37038</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.05152701907037876</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.03397172796602603</v>
+        <v>0.0359539912400858</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.07370702616595619</v>
+        <v>0.07512536291070082</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>28</v>
@@ -906,19 +906,19 @@
         <v>25168</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>17161</v>
+        <v>16852</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>35569</v>
+        <v>35616</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.05383568236742693</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.03670805930803878</v>
+        <v>0.03604809859818511</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.07608552486863923</v>
+        <v>0.07618624308291411</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>54</v>
@@ -927,19 +927,19 @@
         <v>50572</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>38205</v>
+        <v>39064</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>63757</v>
+        <v>66580</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.05265066603549589</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.0397760963662503</v>
+        <v>0.04066965098393999</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.06637785638339692</v>
+        <v>0.0693168911193618</v>
       </c>
     </row>
     <row r="7">
@@ -956,19 +956,19 @@
         <v>180660</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>157189</v>
+        <v>161244</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>202184</v>
+        <v>204303</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.3664340400272971</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.3188274155742002</v>
+        <v>0.3270518041173745</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.4100918467557845</v>
+        <v>0.414389993273942</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>150</v>
@@ -977,19 +977,19 @@
         <v>143718</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>125005</v>
+        <v>126036</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>163556</v>
+        <v>162551</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.3074254807082964</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.2673975566293038</v>
+        <v>0.2696026810029691</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.349860713851935</v>
+        <v>0.3477115139072679</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>330</v>
@@ -998,19 +998,19 @@
         <v>324378</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>297114</v>
+        <v>293727</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>353339</v>
+        <v>353246</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.3377140492518966</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.3093295724819137</v>
+        <v>0.3058024147734776</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.3678656038294779</v>
+        <v>0.3677685103957422</v>
       </c>
     </row>
     <row r="8">
@@ -1102,19 +1102,19 @@
         <v>297042</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>267154</v>
+        <v>271060</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>322600</v>
+        <v>325895</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.4038704951655853</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.3632337289931932</v>
+        <v>0.3685438386977016</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.4386199690460955</v>
+        <v>0.4430998222074224</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>298</v>
@@ -1123,19 +1123,19 @@
         <v>320365</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>295942</v>
+        <v>295662</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>347833</v>
+        <v>344693</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.5121798591650574</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.47313348082427</v>
+        <v>0.4726856030084673</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.5560939677938319</v>
+        <v>0.5510729901204885</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>578</v>
@@ -1144,19 +1144,19 @@
         <v>617407</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>582637</v>
+        <v>578850</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>654350</v>
+        <v>650242</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.4536483881623717</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.428100118192903</v>
+        <v>0.4253181417678722</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.4807926150545956</v>
+        <v>0.4777739337086538</v>
       </c>
     </row>
     <row r="10">
@@ -1173,19 +1173,19 @@
         <v>39454</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>27971</v>
+        <v>27688</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>52679</v>
+        <v>53201</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.053642844329167</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.0380307392807309</v>
+        <v>0.03764573284598265</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.07162419461647093</v>
+        <v>0.07233393699679838</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>68</v>
@@ -1194,19 +1194,19 @@
         <v>71219</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>55623</v>
+        <v>57580</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>88692</v>
+        <v>87213</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.1138602852118429</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.08892577204537061</v>
+        <v>0.09205577268296047</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.1417953125085208</v>
+        <v>0.139430179067065</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>105</v>
@@ -1215,19 +1215,19 @@
         <v>110673</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>93268</v>
+        <v>91128</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>133052</v>
+        <v>132941</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.08131817375694171</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.06853015737463772</v>
+        <v>0.06695734212100091</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.09776190199655417</v>
+        <v>0.09768017899664992</v>
       </c>
     </row>
     <row r="11">
@@ -1244,19 +1244,19 @@
         <v>23043</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>15175</v>
+        <v>14294</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>35204</v>
+        <v>34919</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.03132997693125599</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.02063311436854848</v>
+        <v>0.01943524217540292</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.0478654103190441</v>
+        <v>0.04747726857717641</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>19</v>
@@ -1265,19 +1265,19 @@
         <v>19792</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>12215</v>
+        <v>12540</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>30488</v>
+        <v>31590</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.03164277348890472</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.0195279149265782</v>
+        <v>0.02004838026495011</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.0487414828745089</v>
+        <v>0.05050381647953311</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>41</v>
@@ -1286,19 +1286,19 @@
         <v>42835</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>30488</v>
+        <v>31361</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>57214</v>
+        <v>55751</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.03147373507922626</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.02240179625450104</v>
+        <v>0.02304282462929116</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.04203906174543742</v>
+        <v>0.04096385246946459</v>
       </c>
     </row>
     <row r="12">
@@ -1315,19 +1315,19 @@
         <v>375950</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>348501</v>
+        <v>347502</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>406723</v>
+        <v>402297</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.5111566835739917</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.4738357813361797</v>
+        <v>0.4724776039797915</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.5529964182123221</v>
+        <v>0.5469786070158845</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>206</v>
@@ -1336,19 +1336,19 @@
         <v>214117</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>191847</v>
+        <v>191467</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>238399</v>
+        <v>239996</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.342317082134195</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.3067133353812705</v>
+        <v>0.3061050758561922</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.3811365512984699</v>
+        <v>0.3836896700640417</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>570</v>
@@ -1357,19 +1357,19 @@
         <v>590067</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>552646</v>
+        <v>557373</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>622696</v>
+        <v>627741</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.4335597030014603</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.4060645003732528</v>
+        <v>0.409537401921842</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.4575341558115646</v>
+        <v>0.4612408756623484</v>
       </c>
     </row>
     <row r="13">
@@ -1461,19 +1461,19 @@
         <v>211627</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>185533</v>
+        <v>188568</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>235999</v>
+        <v>235335</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.3313564027607752</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.29049956687182</v>
+        <v>0.2952527703933219</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.3695171667211067</v>
+        <v>0.3684779314878807</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>345</v>
@@ -1482,19 +1482,19 @@
         <v>364869</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>337931</v>
+        <v>338124</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>393452</v>
+        <v>391086</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.5289924384195064</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.4899361311728035</v>
+        <v>0.4902166475001255</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.5704314107935575</v>
+        <v>0.567002056766354</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>546</v>
@@ -1503,19 +1503,19 @@
         <v>576496</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>540482</v>
+        <v>537754</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>615650</v>
+        <v>611258</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.4339739165461386</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.4068633878452828</v>
+        <v>0.4048099517229184</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.4634482783699959</v>
+        <v>0.4601417799811193</v>
       </c>
     </row>
     <row r="15">
@@ -1532,19 +1532,19 @@
         <v>86068</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>69995</v>
+        <v>70411</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>104637</v>
+        <v>106021</v>
       </c>
       <c r="G15" s="6" t="n">
         <v>0.1347616421604579</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.1095949970845447</v>
+        <v>0.1102470387491321</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.1638368213179923</v>
+        <v>0.1660036512359927</v>
       </c>
       <c r="J15" s="5" t="n">
         <v>66</v>
@@ -1553,19 +1553,19 @@
         <v>67414</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>52974</v>
+        <v>53175</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>82428</v>
+        <v>83121</v>
       </c>
       <c r="N15" s="6" t="n">
         <v>0.09773786949097533</v>
       </c>
       <c r="O15" s="6" t="n">
-        <v>0.07680229715327094</v>
+        <v>0.07709373192469438</v>
       </c>
       <c r="P15" s="6" t="n">
-        <v>0.1195053514445337</v>
+        <v>0.1205092913100106</v>
       </c>
       <c r="Q15" s="5" t="n">
         <v>151</v>
@@ -1574,19 +1574,19 @@
         <v>153482</v>
       </c>
       <c r="S15" s="5" t="n">
-        <v>131862</v>
+        <v>132700</v>
       </c>
       <c r="T15" s="5" t="n">
-        <v>177575</v>
+        <v>175774</v>
       </c>
       <c r="U15" s="6" t="n">
         <v>0.1155379844422004</v>
       </c>
       <c r="V15" s="6" t="n">
-        <v>0.09926256885804935</v>
+        <v>0.09989356247652857</v>
       </c>
       <c r="W15" s="6" t="n">
-        <v>0.1336749132231274</v>
+        <v>0.1323188214343646</v>
       </c>
     </row>
     <row r="16">
@@ -1603,19 +1603,19 @@
         <v>19979</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>11803</v>
+        <v>12402</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>31219</v>
+        <v>31073</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.03128248390102098</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.01848080377253126</v>
+        <v>0.01941903305507441</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.04888128584371485</v>
+        <v>0.0486527370929014</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>21</v>
@@ -1624,19 +1624,19 @@
         <v>21724</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>14016</v>
+        <v>13643</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>30911</v>
+        <v>32128</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.03149540395329244</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.02031990033432116</v>
+        <v>0.01978013621736709</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.04481527214410086</v>
+        <v>0.04657943075481771</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>40</v>
@@ -1645,19 +1645,19 @@
         <v>41703</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>30293</v>
+        <v>31224</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>55584</v>
+        <v>57946</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.03139303725393722</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.02280403198235842</v>
+        <v>0.02350494273718843</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.04184262780715375</v>
+        <v>0.04362049789497728</v>
       </c>
     </row>
     <row r="17">
@@ -1674,19 +1674,19 @@
         <v>320994</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>294015</v>
+        <v>296129</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>347487</v>
+        <v>346884</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.5025994711777459</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.4603566809633423</v>
+        <v>0.4636673356238864</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.5440804883730144</v>
+        <v>0.5431369434729979</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>226</v>
@@ -1695,19 +1695,19 @@
         <v>235737</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>210559</v>
+        <v>212119</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>263174</v>
+        <v>263519</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.3417742881362258</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.3052712324926007</v>
+        <v>0.3075328846247196</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.3815530883709659</v>
+        <v>0.3820529256356062</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>534</v>
@@ -1716,19 +1716,19 @@
         <v>556731</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>522065</v>
+        <v>519373</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>595752</v>
+        <v>593758</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.4190950617577238</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.3929993351590735</v>
+        <v>0.3909725591544944</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.4484691591887197</v>
+        <v>0.4469680434926505</v>
       </c>
     </row>
     <row r="18">
@@ -1820,19 +1820,19 @@
         <v>157672</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>135091</v>
+        <v>135794</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>179373</v>
+        <v>178145</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.3037128680525598</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.2602173772706953</v>
+        <v>0.2615719992356217</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.3455155074543226</v>
+        <v>0.3431485547962963</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>302</v>
@@ -1841,19 +1841,19 @@
         <v>308624</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>284955</v>
+        <v>287895</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>327578</v>
+        <v>329450</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.5985228442611923</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.5526211813811636</v>
+        <v>0.5583242664554945</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.6352812990796636</v>
+        <v>0.6389114810025621</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>449</v>
@@ -1862,19 +1862,19 @@
         <v>466295</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>432722</v>
+        <v>433107</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>500457</v>
+        <v>498204</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.4506185637931208</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.4181745835407122</v>
+        <v>0.4185464992131761</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.4836318358285588</v>
+        <v>0.4814542953393317</v>
       </c>
     </row>
     <row r="20">
@@ -1891,19 +1891,19 @@
         <v>126741</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>108101</v>
+        <v>109197</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>147940</v>
+        <v>149205</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.2441325720499544</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.2082275462540324</v>
+        <v>0.2103399264582023</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.2849679878219354</v>
+        <v>0.2874038699696005</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>61</v>
@@ -1912,19 +1912,19 @@
         <v>62052</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>49314</v>
+        <v>47970</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>79118</v>
+        <v>77133</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.1203393364686548</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.09563568957757912</v>
+        <v>0.09303025978406904</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.1534353867245205</v>
+        <v>0.1495861301765627</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>179</v>
@@ -1933,19 +1933,19 @@
         <v>188793</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>163750</v>
+        <v>164097</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>213924</v>
+        <v>216378</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.1824456114018653</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.1582444720698986</v>
+        <v>0.1585797971103771</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.2067316483682448</v>
+        <v>0.209103087102112</v>
       </c>
     </row>
     <row r="21">
@@ -1965,16 +1965,16 @@
         <v>1051</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>9682</v>
+        <v>9232</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.00764155616862033</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.00202426347049362</v>
+        <v>0.002025381558050025</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.01865057639930149</v>
+        <v>0.01778268380729892</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>14</v>
@@ -1983,19 +1983,19 @@
         <v>14718</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>8286</v>
+        <v>8501</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>24258</v>
+        <v>24718</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.02854310713260129</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.0160685839594562</v>
+        <v>0.01648629675243793</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.0470437163701905</v>
+        <v>0.04793691994374625</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>18</v>
@@ -2004,19 +2004,19 @@
         <v>18685</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>11292</v>
+        <v>11367</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>29194</v>
+        <v>28200</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.01805693262876912</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.01091272069585795</v>
+        <v>0.01098483791562925</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.02821281211357714</v>
+        <v>0.02725221621782865</v>
       </c>
     </row>
     <row r="22">
@@ -2033,19 +2033,19 @@
         <v>230768</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>207836</v>
+        <v>209258</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>254471</v>
+        <v>254762</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.4445130037288655</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.4003407687410472</v>
+        <v>0.4030800954521963</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.4901705653756899</v>
+        <v>0.4907320056474551</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>125</v>
@@ -2054,19 +2054,19 @@
         <v>130248</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>111343</v>
+        <v>112721</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>149242</v>
+        <v>151009</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.2525947121375516</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.2159301186655001</v>
+        <v>0.2186038975651796</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.2894294780598242</v>
+        <v>0.2928564365739236</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>340</v>
@@ -2075,19 +2075,19 @@
         <v>361016</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>330670</v>
+        <v>330291</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>392017</v>
+        <v>392650</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.3488788921762447</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.3195528204033806</v>
+        <v>0.319186586456716</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.3788371723565867</v>
+        <v>0.3794490508709475</v>
       </c>
     </row>
     <row r="23">
@@ -2179,19 +2179,19 @@
         <v>128025</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>109092</v>
+        <v>110156</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>146237</v>
+        <v>148173</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.3310627455450456</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.2821027102438224</v>
+        <v>0.2848535077145052</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.3781564479236726</v>
+        <v>0.3831630353170374</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>334</v>
@@ -2200,19 +2200,19 @@
         <v>339659</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>323753</v>
+        <v>322183</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>352552</v>
+        <v>351958</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.8407694629130879</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.8013968236265058</v>
+        <v>0.7975106550625422</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.8726847327901553</v>
+        <v>0.871213579965359</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>465</v>
@@ -2221,19 +2221,19 @@
         <v>467684</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>437899</v>
+        <v>440749</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>494386</v>
+        <v>491898</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.5914844038334418</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.5538151403406534</v>
+        <v>0.5574187832633043</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.625253628469725</v>
+        <v>0.6221079939058314</v>
       </c>
     </row>
     <row r="25">
@@ -2250,19 +2250,19 @@
         <v>129994</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>110643</v>
+        <v>111225</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>147662</v>
+        <v>149821</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.3361540259732458</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.2861130830992144</v>
+        <v>0.2876177167324881</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.3818423585046822</v>
+        <v>0.3874258848301154</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>17</v>
@@ -2271,19 +2271,19 @@
         <v>17439</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>10983</v>
+        <v>10478</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>27006</v>
+        <v>26136</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.04316740013123618</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.02718690154916276</v>
+        <v>0.0259361028479025</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.06684912716093687</v>
+        <v>0.064696364654919</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>147</v>
@@ -2292,19 +2292,19 @@
         <v>147433</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>125813</v>
+        <v>126542</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>170810</v>
+        <v>168702</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.1864599757317923</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.1591173562295689</v>
+        <v>0.1600388956199966</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.2160253321729586</v>
+        <v>0.2133589624595771</v>
       </c>
     </row>
     <row r="26">
@@ -2321,19 +2321,19 @@
         <v>5996</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>2063</v>
+        <v>2070</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>12553</v>
+        <v>12074</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.01550630827977082</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.005333787726065665</v>
+        <v>0.005353572799356615</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.03246195199504399</v>
+        <v>0.03122321305628811</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>2</v>
@@ -2345,7 +2345,7 @@
         <v>0</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>7714</v>
+        <v>8926</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.005511107998143016</v>
@@ -2354,7 +2354,7 @@
         <v>0</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.01909372372478575</v>
+        <v>0.02209457920957924</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>8</v>
@@ -2363,19 +2363,19 @@
         <v>8223</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>4010</v>
+        <v>3908</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>15681</v>
+        <v>16002</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.0103995154054155</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.005071750947252601</v>
+        <v>0.004943026450909383</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.01983242763010115</v>
+        <v>0.02023771978395713</v>
       </c>
     </row>
     <row r="27">
@@ -2392,19 +2392,19 @@
         <v>122694</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>105581</v>
+        <v>104219</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>142648</v>
+        <v>139885</v>
       </c>
       <c r="G27" s="6" t="n">
         <v>0.3172769202019378</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.2730231788777544</v>
+        <v>0.2695015482750133</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.3688757555202449</v>
+        <v>0.3617309442000197</v>
       </c>
       <c r="J27" s="5" t="n">
         <v>43</v>
@@ -2413,19 +2413,19 @@
         <v>44661</v>
       </c>
       <c r="L27" s="5" t="n">
-        <v>33110</v>
+        <v>33641</v>
       </c>
       <c r="M27" s="5" t="n">
-        <v>58037</v>
+        <v>58871</v>
       </c>
       <c r="N27" s="6" t="n">
         <v>0.1105520289575329</v>
       </c>
       <c r="O27" s="6" t="n">
-        <v>0.08195905966062289</v>
+        <v>0.0832723804891418</v>
       </c>
       <c r="P27" s="6" t="n">
-        <v>0.1436602250387788</v>
+        <v>0.1457254892727523</v>
       </c>
       <c r="Q27" s="5" t="n">
         <v>168</v>
@@ -2434,19 +2434,19 @@
         <v>167356</v>
       </c>
       <c r="S27" s="5" t="n">
-        <v>145910</v>
+        <v>146384</v>
       </c>
       <c r="T27" s="5" t="n">
-        <v>190932</v>
+        <v>191081</v>
       </c>
       <c r="U27" s="6" t="n">
         <v>0.2116561050293503</v>
       </c>
       <c r="V27" s="6" t="n">
-        <v>0.1845330165207762</v>
+        <v>0.1851326715228136</v>
       </c>
       <c r="W27" s="6" t="n">
-        <v>0.2414727131290402</v>
+        <v>0.2416614205436576</v>
       </c>
     </row>
     <row r="28">
@@ -2538,19 +2538,19 @@
         <v>116701</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>100162</v>
+        <v>101587</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>133374</v>
+        <v>134892</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.3988634830061708</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.3423371407521016</v>
+        <v>0.3472063966606349</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.4558516221091318</v>
+        <v>0.4610367078579613</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>350</v>
@@ -2559,19 +2559,19 @@
         <v>322806</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>312024</v>
+        <v>312600</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>330061</v>
+        <v>330253</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.9413071499706568</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.9098652687252345</v>
+        <v>0.911546984719658</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.9624635305929912</v>
+        <v>0.9630214760191128</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>468</v>
@@ -2580,19 +2580,19 @@
         <v>439507</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>416848</v>
+        <v>416268</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>462129</v>
+        <v>459921</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.6915737900114218</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.6559198103130091</v>
+        <v>0.6550070285443438</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.7271707444314613</v>
+        <v>0.7236962463349371</v>
       </c>
     </row>
     <row r="30">
@@ -2609,19 +2609,19 @@
         <v>122710</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>106286</v>
+        <v>105192</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>140045</v>
+        <v>138552</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.4194011689398517</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.3632675470854504</v>
+        <v>0.3595292699376042</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.478650439059136</v>
+        <v>0.4735477043738026</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>14</v>
@@ -2630,19 +2630,19 @@
         <v>13543</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>7589</v>
+        <v>7903</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>22559</v>
+        <v>22602</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.03949110520248</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.02212971701383295</v>
+        <v>0.02304382615112687</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.06578201218967833</v>
+        <v>0.06590709304962702</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>142</v>
@@ -2651,19 +2651,19 @@
         <v>136252</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>117041</v>
+        <v>117341</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>156464</v>
+        <v>160188</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.2143963026958679</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.1841664524386373</v>
+        <v>0.1846387831064421</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.2461987887499452</v>
+        <v>0.2520597488779552</v>
       </c>
     </row>
     <row r="31">
@@ -2680,19 +2680,19 @@
         <v>3504</v>
       </c>
       <c r="E31" s="5" t="n">
-        <v>894</v>
+        <v>909</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>8568</v>
+        <v>8603</v>
       </c>
       <c r="G31" s="6" t="n">
         <v>0.01197673205726162</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.003056597256729805</v>
+        <v>0.003108263307117444</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.02928272790889083</v>
+        <v>0.029405273770683</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>1</v>
@@ -2704,7 +2704,7 @@
         <v>0</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>4738</v>
+        <v>4203</v>
       </c>
       <c r="N31" s="6" t="n">
         <v>0.002596689664522539</v>
@@ -2713,7 +2713,7 @@
         <v>0</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.01381545854020632</v>
+        <v>0.01225534659128059</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>5</v>
@@ -2722,19 +2722,19 @@
         <v>4395</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>1739</v>
+        <v>1745</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>9757</v>
+        <v>9634</v>
       </c>
       <c r="U31" s="6" t="n">
         <v>0.006915127957677424</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.002736461159410774</v>
+        <v>0.002745350363830007</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.01535358071429072</v>
+        <v>0.01515891802059579</v>
       </c>
     </row>
     <row r="32">
@@ -2751,19 +2751,19 @@
         <v>49668</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>38460</v>
+        <v>38169</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>62821</v>
+        <v>62160</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.1697586159967159</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.1314510683078589</v>
+        <v>0.1304556045984474</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.2147130233384442</v>
+        <v>0.2124530121568233</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>6</v>
@@ -2772,19 +2772,19 @@
         <v>5694</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>2066</v>
+        <v>2315</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>12472</v>
+        <v>12331</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.01660505516234066</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.00602465878482199</v>
+        <v>0.006749498732182918</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.03636922253199538</v>
+        <v>0.03595788376050565</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>59</v>
@@ -2793,19 +2793,19 @@
         <v>55363</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>42502</v>
+        <v>43694</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>69066</v>
+        <v>71503</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.08711477933503288</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.06687791414406354</v>
+        <v>0.06875370485371746</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.108676230244764</v>
+        <v>0.1125115292191067</v>
       </c>
     </row>
     <row r="33">
@@ -2897,19 +2897,19 @@
         <v>73931</v>
       </c>
       <c r="E34" s="5" t="n">
-        <v>61751</v>
+        <v>62195</v>
       </c>
       <c r="F34" s="5" t="n">
-        <v>87006</v>
+        <v>89347</v>
       </c>
       <c r="G34" s="6" t="n">
         <v>0.3522485636292813</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>0.2942184207747616</v>
+        <v>0.2963321103821234</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>0.4145435527238009</v>
+        <v>0.4256976092646638</v>
       </c>
       <c r="J34" s="5" t="n">
         <v>279</v>
@@ -2918,19 +2918,19 @@
         <v>320039</v>
       </c>
       <c r="L34" s="5" t="n">
-        <v>310340</v>
+        <v>310201</v>
       </c>
       <c r="M34" s="5" t="n">
-        <v>326564</v>
+        <v>326182</v>
       </c>
       <c r="N34" s="6" t="n">
         <v>0.9584638468915795</v>
       </c>
       <c r="O34" s="6" t="n">
-        <v>0.9294175355167966</v>
+        <v>0.9290016579656979</v>
       </c>
       <c r="P34" s="6" t="n">
-        <v>0.9780067578701211</v>
+        <v>0.9768606254164156</v>
       </c>
       <c r="Q34" s="5" t="n">
         <v>359</v>
@@ -2939,19 +2939,19 @@
         <v>393970</v>
       </c>
       <c r="S34" s="5" t="n">
-        <v>370886</v>
+        <v>373371</v>
       </c>
       <c r="T34" s="5" t="n">
-        <v>414020</v>
+        <v>414581</v>
       </c>
       <c r="U34" s="6" t="n">
         <v>0.7244873989172353</v>
       </c>
       <c r="V34" s="6" t="n">
-        <v>0.6820384225938397</v>
+        <v>0.6866080698296775</v>
       </c>
       <c r="W34" s="6" t="n">
-        <v>0.7613594260079751</v>
+        <v>0.7623902292303695</v>
       </c>
     </row>
     <row r="35">
@@ -2968,19 +2968,19 @@
         <v>113298</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>99809</v>
+        <v>98988</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>126306</v>
+        <v>126692</v>
       </c>
       <c r="G35" s="6" t="n">
         <v>0.53981734363644</v>
       </c>
       <c r="H35" s="6" t="n">
-        <v>0.4755480053179709</v>
+        <v>0.4716345448244126</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>0.6017918087386064</v>
+        <v>0.60363158730289</v>
       </c>
       <c r="J35" s="5" t="n">
         <v>7</v>
@@ -2989,19 +2989,19 @@
         <v>9234</v>
       </c>
       <c r="L35" s="5" t="n">
-        <v>3850</v>
+        <v>4497</v>
       </c>
       <c r="M35" s="5" t="n">
-        <v>18354</v>
+        <v>18791</v>
       </c>
       <c r="N35" s="6" t="n">
         <v>0.02765526403602299</v>
       </c>
       <c r="O35" s="6" t="n">
-        <v>0.01153083050002108</v>
+        <v>0.01346715760064951</v>
       </c>
       <c r="P35" s="6" t="n">
-        <v>0.05496592660240766</v>
+        <v>0.0562755226020443</v>
       </c>
       <c r="Q35" s="5" t="n">
         <v>124</v>
@@ -3010,19 +3010,19 @@
         <v>122533</v>
       </c>
       <c r="S35" s="5" t="n">
-        <v>102440</v>
+        <v>103604</v>
       </c>
       <c r="T35" s="5" t="n">
-        <v>143475</v>
+        <v>142706</v>
       </c>
       <c r="U35" s="6" t="n">
         <v>0.225330689715136</v>
       </c>
       <c r="V35" s="6" t="n">
-        <v>0.1883806743479522</v>
+        <v>0.1905224886949525</v>
       </c>
       <c r="W35" s="6" t="n">
-        <v>0.2638419151218959</v>
+        <v>0.2624274671414428</v>
       </c>
     </row>
     <row r="36">
@@ -3039,19 +3039,19 @@
         <v>3143</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>837</v>
+        <v>817</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>9099</v>
+        <v>9445</v>
       </c>
       <c r="G36" s="6" t="n">
         <v>0.01497639528485382</v>
       </c>
       <c r="H36" s="6" t="n">
-        <v>0.003987813893178192</v>
+        <v>0.003892250382169832</v>
       </c>
       <c r="I36" s="6" t="n">
-        <v>0.04335154697091037</v>
+        <v>0.04500210729953583</v>
       </c>
       <c r="J36" s="5" t="n">
         <v>0</v>
@@ -3073,19 +3073,19 @@
         <v>3143</v>
       </c>
       <c r="S36" s="5" t="n">
-        <v>814</v>
+        <v>819</v>
       </c>
       <c r="T36" s="5" t="n">
-        <v>9421</v>
+        <v>8967</v>
       </c>
       <c r="U36" s="6" t="n">
         <v>0.005780328983711291</v>
       </c>
       <c r="V36" s="6" t="n">
-        <v>0.001496178091412535</v>
+        <v>0.001506145522949324</v>
       </c>
       <c r="W36" s="6" t="n">
-        <v>0.01732470050248617</v>
+        <v>0.01649038386526031</v>
       </c>
     </row>
     <row r="37">
@@ -3102,19 +3102,19 @@
         <v>19510</v>
       </c>
       <c r="E37" s="5" t="n">
-        <v>12204</v>
+        <v>12098</v>
       </c>
       <c r="F37" s="5" t="n">
-        <v>28591</v>
+        <v>28110</v>
       </c>
       <c r="G37" s="6" t="n">
         <v>0.09295769744942486</v>
       </c>
       <c r="H37" s="6" t="n">
-        <v>0.05814540034722603</v>
+        <v>0.05764297819451249</v>
       </c>
       <c r="I37" s="6" t="n">
-        <v>0.136225645963495</v>
+        <v>0.1339315310099209</v>
       </c>
       <c r="J37" s="5" t="n">
         <v>4</v>
@@ -3123,19 +3123,19 @@
         <v>4635</v>
       </c>
       <c r="L37" s="5" t="n">
-        <v>1117</v>
+        <v>1129</v>
       </c>
       <c r="M37" s="5" t="n">
-        <v>11815</v>
+        <v>11211</v>
       </c>
       <c r="N37" s="6" t="n">
         <v>0.01388088907239755</v>
       </c>
       <c r="O37" s="6" t="n">
-        <v>0.003344801964975238</v>
+        <v>0.003380638869394978</v>
       </c>
       <c r="P37" s="6" t="n">
-        <v>0.03538406402978991</v>
+        <v>0.03357507293198449</v>
       </c>
       <c r="Q37" s="5" t="n">
         <v>24</v>
@@ -3144,19 +3144,19 @@
         <v>24145</v>
       </c>
       <c r="S37" s="5" t="n">
-        <v>15640</v>
+        <v>16492</v>
       </c>
       <c r="T37" s="5" t="n">
-        <v>36383</v>
+        <v>37158</v>
       </c>
       <c r="U37" s="6" t="n">
         <v>0.04440158238391737</v>
       </c>
       <c r="V37" s="6" t="n">
-        <v>0.02876187176002499</v>
+        <v>0.03032769040684079</v>
       </c>
       <c r="W37" s="6" t="n">
-        <v>0.06690574042198201</v>
+        <v>0.06833199464130076</v>
       </c>
     </row>
     <row r="38">
@@ -3248,19 +3248,19 @@
         <v>1260667</v>
       </c>
       <c r="E39" s="5" t="n">
-        <v>1202026</v>
+        <v>1206566</v>
       </c>
       <c r="F39" s="5" t="n">
-        <v>1319433</v>
+        <v>1313169</v>
       </c>
       <c r="G39" s="6" t="n">
         <v>0.3848775836841052</v>
       </c>
       <c r="H39" s="6" t="n">
-        <v>0.366974616693338</v>
+        <v>0.3683608531573612</v>
       </c>
       <c r="I39" s="6" t="n">
-        <v>0.4028186636774286</v>
+        <v>0.4009062984391998</v>
       </c>
       <c r="J39" s="5" t="n">
         <v>2204</v>
@@ -3269,19 +3269,19 @@
         <v>2259523</v>
       </c>
       <c r="L39" s="5" t="n">
-        <v>2204173</v>
+        <v>2202203</v>
       </c>
       <c r="M39" s="5" t="n">
-        <v>2314677</v>
+        <v>2317479</v>
       </c>
       <c r="N39" s="6" t="n">
         <v>0.6686568692120715</v>
       </c>
       <c r="O39" s="6" t="n">
-        <v>0.6522772763982524</v>
+        <v>0.6516942246115297</v>
       </c>
       <c r="P39" s="6" t="n">
-        <v>0.6849785522664467</v>
+        <v>0.6858075479348056</v>
       </c>
       <c r="Q39" s="5" t="n">
         <v>3442</v>
@@ -3290,19 +3290,19 @@
         <v>3520190</v>
       </c>
       <c r="S39" s="5" t="n">
-        <v>3439826</v>
+        <v>3430132</v>
       </c>
       <c r="T39" s="5" t="n">
-        <v>3601975</v>
+        <v>3597944</v>
       </c>
       <c r="U39" s="6" t="n">
         <v>0.5289782096862725</v>
       </c>
       <c r="V39" s="6" t="n">
-        <v>0.5169018545466164</v>
+        <v>0.5154451572413167</v>
       </c>
       <c r="W39" s="6" t="n">
-        <v>0.5412679309033197</v>
+        <v>0.5406622185011146</v>
       </c>
     </row>
     <row r="40">
@@ -3319,19 +3319,19 @@
         <v>629553</v>
       </c>
       <c r="E40" s="5" t="n">
-        <v>583816</v>
+        <v>584040</v>
       </c>
       <c r="F40" s="5" t="n">
-        <v>678145</v>
+        <v>678617</v>
       </c>
       <c r="G40" s="6" t="n">
         <v>0.192200473163617</v>
       </c>
       <c r="H40" s="6" t="n">
-        <v>0.1782372219741326</v>
+        <v>0.1783055188693108</v>
       </c>
       <c r="I40" s="6" t="n">
-        <v>0.2070355206324819</v>
+        <v>0.20717964404558</v>
       </c>
       <c r="J40" s="5" t="n">
         <v>248</v>
@@ -3340,19 +3340,19 @@
         <v>256344</v>
       </c>
       <c r="L40" s="5" t="n">
-        <v>228174</v>
+        <v>226441</v>
       </c>
       <c r="M40" s="5" t="n">
-        <v>287151</v>
+        <v>287914</v>
       </c>
       <c r="N40" s="6" t="n">
         <v>0.07585934664153964</v>
       </c>
       <c r="O40" s="6" t="n">
-        <v>0.06752307648619946</v>
+        <v>0.06701028631251017</v>
       </c>
       <c r="P40" s="6" t="n">
-        <v>0.08497610494943864</v>
+        <v>0.08520192198835411</v>
       </c>
       <c r="Q40" s="5" t="n">
         <v>874</v>
@@ -3361,19 +3361,19 @@
         <v>885897</v>
       </c>
       <c r="S40" s="5" t="n">
-        <v>828148</v>
+        <v>828244</v>
       </c>
       <c r="T40" s="5" t="n">
-        <v>945100</v>
+        <v>937279</v>
       </c>
       <c r="U40" s="6" t="n">
         <v>0.1331234720694813</v>
       </c>
       <c r="V40" s="6" t="n">
-        <v>0.1244456136212019</v>
+        <v>0.1244600030404251</v>
       </c>
       <c r="W40" s="6" t="n">
-        <v>0.1420198992640552</v>
+        <v>0.1408446444643675</v>
       </c>
     </row>
     <row r="41">
@@ -3390,19 +3390,19 @@
         <v>85037</v>
       </c>
       <c r="E41" s="5" t="n">
-        <v>68635</v>
+        <v>68576</v>
       </c>
       <c r="F41" s="5" t="n">
-        <v>104211</v>
+        <v>105855</v>
       </c>
       <c r="G41" s="6" t="n">
         <v>0.02596149507310007</v>
       </c>
       <c r="H41" s="6" t="n">
-        <v>0.02095411720060488</v>
+        <v>0.02093609705348565</v>
       </c>
       <c r="I41" s="6" t="n">
-        <v>0.03181543208752086</v>
+        <v>0.03231726340663656</v>
       </c>
       <c r="J41" s="5" t="n">
         <v>85</v>
@@ -3411,19 +3411,19 @@
         <v>84519</v>
       </c>
       <c r="L41" s="5" t="n">
-        <v>67147</v>
+        <v>67781</v>
       </c>
       <c r="M41" s="5" t="n">
-        <v>103755</v>
+        <v>103209</v>
       </c>
       <c r="N41" s="6" t="n">
         <v>0.02501146116825536</v>
       </c>
       <c r="O41" s="6" t="n">
-        <v>0.01987083731027446</v>
+        <v>0.02005832963801561</v>
       </c>
       <c r="P41" s="6" t="n">
-        <v>0.03070395022692473</v>
+        <v>0.0305425005472249</v>
       </c>
       <c r="Q41" s="5" t="n">
         <v>169</v>
@@ -3432,19 +3432,19 @@
         <v>169556</v>
       </c>
       <c r="S41" s="5" t="n">
-        <v>146280</v>
+        <v>144982</v>
       </c>
       <c r="T41" s="5" t="n">
-        <v>196126</v>
+        <v>198319</v>
       </c>
       <c r="U41" s="6" t="n">
         <v>0.02547907620959245</v>
       </c>
       <c r="V41" s="6" t="n">
-        <v>0.02198149849235814</v>
+        <v>0.02178641612007074</v>
       </c>
       <c r="W41" s="6" t="n">
-        <v>0.0294718214586715</v>
+        <v>0.02980131386434762</v>
       </c>
     </row>
     <row r="42">
@@ -3461,19 +3461,19 @@
         <v>1300244</v>
       </c>
       <c r="E42" s="5" t="n">
-        <v>1241488</v>
+        <v>1246851</v>
       </c>
       <c r="F42" s="5" t="n">
-        <v>1358712</v>
+        <v>1355781</v>
       </c>
       <c r="G42" s="6" t="n">
         <v>0.3969604480791778</v>
       </c>
       <c r="H42" s="6" t="n">
-        <v>0.3790222814535405</v>
+        <v>0.3806596136529921</v>
       </c>
       <c r="I42" s="6" t="n">
-        <v>0.4148104301233219</v>
+        <v>0.4139157013789906</v>
       </c>
       <c r="J42" s="5" t="n">
         <v>760</v>
@@ -3482,19 +3482,19 @@
         <v>778811</v>
       </c>
       <c r="L42" s="5" t="n">
-        <v>730738</v>
+        <v>722976</v>
       </c>
       <c r="M42" s="5" t="n">
-        <v>827496</v>
+        <v>829703</v>
       </c>
       <c r="N42" s="6" t="n">
         <v>0.2304723229781336</v>
       </c>
       <c r="O42" s="6" t="n">
-        <v>0.2162460898598537</v>
+        <v>0.2139491491364316</v>
       </c>
       <c r="P42" s="6" t="n">
-        <v>0.2448793459129633</v>
+        <v>0.2455325604235083</v>
       </c>
       <c r="Q42" s="5" t="n">
         <v>2025</v>
@@ -3503,19 +3503,19 @@
         <v>2079056</v>
       </c>
       <c r="S42" s="5" t="n">
-        <v>2003973</v>
+        <v>2012668</v>
       </c>
       <c r="T42" s="5" t="n">
-        <v>2162508</v>
+        <v>2157230</v>
       </c>
       <c r="U42" s="6" t="n">
         <v>0.3124192420346537</v>
       </c>
       <c r="V42" s="6" t="n">
-        <v>0.301136588407026</v>
+        <v>0.3024431126145671</v>
       </c>
       <c r="W42" s="6" t="n">
-        <v>0.3249596318384336</v>
+        <v>0.3241665405739393</v>
       </c>
     </row>
     <row r="43">
@@ -3850,19 +3850,19 @@
         <v>270321</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>247799</v>
+        <v>248093</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>291531</v>
+        <v>290029</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.5952297390540786</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.5456367220335966</v>
+        <v>0.5462842481712851</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.6419330738624979</v>
+        <v>0.638623998248885</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>258</v>
@@ -3871,19 +3871,19 @@
         <v>261832</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>241503</v>
+        <v>238789</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>281480</v>
+        <v>281103</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.6099987745531463</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.5626370022411834</v>
+        <v>0.5563148481383529</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.655772310299266</v>
+        <v>0.6548947629601025</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>521</v>
@@ -3892,19 +3892,19 @@
         <v>532153</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>500752</v>
+        <v>504264</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>556603</v>
+        <v>561184</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.6024060044640794</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.5668590220961539</v>
+        <v>0.5708343682617935</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.6300831465415186</v>
+        <v>0.6352688147110249</v>
       </c>
     </row>
     <row r="5">
@@ -3921,19 +3921,19 @@
         <v>17739</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>10813</v>
+        <v>10462</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>27872</v>
+        <v>27955</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.03906083478290806</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.02380965383185654</v>
+        <v>0.02303750671475732</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.06137320301099963</v>
+        <v>0.06155588537741113</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>19</v>
@@ -3942,19 +3942,19 @@
         <v>19229</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>12404</v>
+        <v>11686</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>29161</v>
+        <v>29960</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.04479953736578601</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.02889683842020695</v>
+        <v>0.02722598385629364</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.06793669613195076</v>
+        <v>0.06979792832314512</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>36</v>
@@ -3963,19 +3963,19 @@
         <v>36969</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>26867</v>
+        <v>26531</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>50850</v>
+        <v>51726</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.04184926689456416</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.03041391510280822</v>
+        <v>0.03003362931514138</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.0575635037207828</v>
+        <v>0.0585543932993299</v>
       </c>
     </row>
     <row r="6">
@@ -3992,19 +3992,19 @@
         <v>24323</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>15951</v>
+        <v>16232</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>35037</v>
+        <v>36939</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.05355718345229284</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.03512282102204914</v>
+        <v>0.03574275631966813</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.07714826777828285</v>
+        <v>0.0813362879162421</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>18</v>
@@ -4013,19 +4013,19 @@
         <v>17782</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>10791</v>
+        <v>10998</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>26626</v>
+        <v>27145</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.04142736941798048</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.0251411802088316</v>
+        <v>0.02562282292207724</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.06203237087199985</v>
+        <v>0.06324138118456724</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>42</v>
@@ -4034,19 +4034,19 @@
         <v>42105</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>29774</v>
+        <v>30555</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>56064</v>
+        <v>56086</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.04766331415462118</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.03370451347187777</v>
+        <v>0.03458871962403752</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.06346507964297356</v>
+        <v>0.06349052496189764</v>
       </c>
     </row>
     <row r="7">
@@ -4063,19 +4063,19 @@
         <v>141763</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>123228</v>
+        <v>123731</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>162519</v>
+        <v>161329</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.3121522427107205</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.271339544189324</v>
+        <v>0.2724465745137579</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.3578564413542952</v>
+        <v>0.3552366963201373</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>125</v>
@@ -4084,19 +4084,19 @@
         <v>130390</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>112790</v>
+        <v>111066</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>151429</v>
+        <v>150856</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.3037743186630871</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.2627709111916548</v>
+        <v>0.2587534329604404</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.3527877871426282</v>
+        <v>0.3514550883220324</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>267</v>
@@ -4105,19 +4105,19 @@
         <v>272153</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>246833</v>
+        <v>246325</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>300503</v>
+        <v>299914</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.3080814144867353</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.2794186558280188</v>
+        <v>0.2788442506419236</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.3401740117665508</v>
+        <v>0.3395069415369825</v>
       </c>
     </row>
     <row r="8">
@@ -4209,19 +4209,19 @@
         <v>264230</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>241128</v>
+        <v>236319</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>290868</v>
+        <v>287844</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.3845656738473793</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.3509431076237039</v>
+        <v>0.3439428693138084</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.4233346616915165</v>
+        <v>0.4189337266857789</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>256</v>
@@ -4230,19 +4230,19 @@
         <v>275274</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>251556</v>
+        <v>250249</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>300990</v>
+        <v>302390</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.4510802130693916</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.4122146408816665</v>
+        <v>0.4100730537680806</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.4932201903761604</v>
+        <v>0.4955149378946135</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>515</v>
@@ -4251,19 +4251,19 @@
         <v>539504</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>502656</v>
+        <v>502546</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>577461</v>
+        <v>575154</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.4158533707568147</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.3874504912552209</v>
+        <v>0.3873655917056464</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.4451105058461691</v>
+        <v>0.4433329349142909</v>
       </c>
     </row>
     <row r="10">
@@ -4280,19 +4280,19 @@
         <v>73693</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>57822</v>
+        <v>58268</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>91550</v>
+        <v>91510</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.1072547711690046</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.08415546852885109</v>
+        <v>0.08480473290183708</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.1332443933413625</v>
+        <v>0.1331850282674833</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>81</v>
@@ -4301,19 +4301,19 @@
         <v>86447</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>68978</v>
+        <v>70860</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>104172</v>
+        <v>107884</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.141657935289761</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.1130321625796556</v>
+        <v>0.1161146245091857</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.170702205825362</v>
+        <v>0.1767846229834101</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>152</v>
@@ -4322,19 +4322,19 @@
         <v>160141</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>137576</v>
+        <v>134297</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>186548</v>
+        <v>184556</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.1234376356122656</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.1060443959732696</v>
+        <v>0.1035167766204281</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.1437925165415503</v>
+        <v>0.1422572671066735</v>
       </c>
     </row>
     <row r="11">
@@ -4351,19 +4351,19 @@
         <v>30533</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>20230</v>
+        <v>22070</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>42519</v>
+        <v>43429</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.04443887315502252</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.02944273513970035</v>
+        <v>0.03212087518116524</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.0618826731491721</v>
+        <v>0.06320793785638952</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>20</v>
@@ -4372,19 +4372,19 @@
         <v>23291</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>14545</v>
+        <v>14812</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>35395</v>
+        <v>36059</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.03816520872646655</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.02383501771339704</v>
+        <v>0.02427110411623837</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.05800066392137346</v>
+        <v>0.05908783366601654</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>49</v>
@@ -4393,19 +4393,19 @@
         <v>53824</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>40626</v>
+        <v>39803</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>72270</v>
+        <v>70060</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.04148781142554119</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.03131485528867257</v>
+        <v>0.03068018180673906</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.0557059031979896</v>
+        <v>0.05400240699316675</v>
       </c>
     </row>
     <row r="12">
@@ -4422,19 +4422,19 @@
         <v>318630</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>291509</v>
+        <v>293946</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>345372</v>
+        <v>347968</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.4637406818285936</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.4242685306815577</v>
+        <v>0.4278146014140755</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.5026605998688631</v>
+        <v>0.506439999886008</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>214</v>
@@ -4443,19 +4443,19 @@
         <v>225243</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>199548</v>
+        <v>199890</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>249114</v>
+        <v>248510</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.3690966429143809</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.3269906202030828</v>
+        <v>0.3275523828963335</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.4082122363102577</v>
+        <v>0.4072225273635173</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>522</v>
@@ -4464,19 +4464,19 @@
         <v>543873</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>506595</v>
+        <v>511422</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>579720</v>
+        <v>582594</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.4192211822053785</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.3904872151782569</v>
+        <v>0.3942078113860929</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.4468520585039536</v>
+        <v>0.4490672498620945</v>
       </c>
     </row>
     <row r="13">
@@ -4568,19 +4568,19 @@
         <v>242223</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>216803</v>
+        <v>216482</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>268934</v>
+        <v>268810</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.3557738508725526</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.3184379668517441</v>
+        <v>0.3179663277029932</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.3950074637582621</v>
+        <v>0.3948252377330172</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>314</v>
@@ -4589,19 +4589,19 @@
         <v>335535</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>309456</v>
+        <v>309009</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>364051</v>
+        <v>364240</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.4726753179177756</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.4359365669185101</v>
+        <v>0.4353067228749736</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.5128455949510412</v>
+        <v>0.5131123578943807</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>544</v>
@@ -4610,19 +4610,19 @@
         <v>577758</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>541298</v>
+        <v>540316</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>618273</v>
+        <v>615458</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.4154447358514596</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.3892280892633908</v>
+        <v>0.3885217333194891</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.4445779014481772</v>
+        <v>0.4425537329036989</v>
       </c>
     </row>
     <row r="15">
@@ -4639,19 +4639,19 @@
         <v>113281</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>95044</v>
+        <v>95152</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>135716</v>
+        <v>134818</v>
       </c>
       <c r="G15" s="6" t="n">
         <v>0.1663853117299401</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.1396002117224513</v>
+        <v>0.1397580808233929</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.1993383725314321</v>
+        <v>0.1980196886168693</v>
       </c>
       <c r="J15" s="5" t="n">
         <v>118</v>
@@ -4660,19 +4660,19 @@
         <v>126089</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>105335</v>
+        <v>105677</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>147685</v>
+        <v>146826</v>
       </c>
       <c r="N15" s="6" t="n">
         <v>0.1776248299364611</v>
       </c>
       <c r="O15" s="6" t="n">
-        <v>0.1483880324927735</v>
+        <v>0.148869717736634</v>
       </c>
       <c r="P15" s="6" t="n">
-        <v>0.208046811295226</v>
+        <v>0.2068361118483291</v>
       </c>
       <c r="Q15" s="5" t="n">
         <v>228</v>
@@ -4681,19 +4681,19 @@
         <v>239370</v>
       </c>
       <c r="S15" s="5" t="n">
-        <v>212521</v>
+        <v>211511</v>
       </c>
       <c r="T15" s="5" t="n">
-        <v>269347</v>
+        <v>269003</v>
       </c>
       <c r="U15" s="6" t="n">
         <v>0.1721223825732016</v>
       </c>
       <c r="V15" s="6" t="n">
-        <v>0.1528159709673473</v>
+        <v>0.1520898258823054</v>
       </c>
       <c r="W15" s="6" t="n">
-        <v>0.1936775922105926</v>
+        <v>0.1934300331735702</v>
       </c>
     </row>
     <row r="16">
@@ -4710,19 +4710,19 @@
         <v>17441</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>10451</v>
+        <v>10678</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>28044</v>
+        <v>29118</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.02561645467732499</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.01534959502312052</v>
+        <v>0.01568315620997717</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.04119020960514098</v>
+        <v>0.04276812706796381</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>11</v>
@@ -4731,19 +4731,19 @@
         <v>12405</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>6796</v>
+        <v>6169</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>23035</v>
+        <v>22186</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.0174752627964668</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.009573422861014957</v>
+        <v>0.008689726615199738</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.0324491867129858</v>
+        <v>0.03125439940238001</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>27</v>
@@ -4752,19 +4752,19 @@
         <v>29846</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>20123</v>
+        <v>19891</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>43172</v>
+        <v>43378</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.02146088557633181</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.0144693727513304</v>
+        <v>0.01430261462008499</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.03104375448190386</v>
+        <v>0.03119184876029307</v>
       </c>
     </row>
     <row r="17">
@@ -4781,19 +4781,19 @@
         <v>307889</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>280144</v>
+        <v>282452</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>334129</v>
+        <v>334632</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.4522243827201823</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.4114725339133385</v>
+        <v>0.4148627140500888</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.4907648490822428</v>
+        <v>0.4915036373526264</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>223</v>
@@ -4802,19 +4802,19 @@
         <v>235834</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>209943</v>
+        <v>210304</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>261239</v>
+        <v>261394</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.3322245893492964</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.2957511653919122</v>
+        <v>0.2962599554621345</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.3680126175709301</v>
+        <v>0.3682311237476621</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>517</v>
@@ -4823,19 +4823,19 @@
         <v>543724</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>504759</v>
+        <v>508207</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>580924</v>
+        <v>581197</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.3909719959990069</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.3629538969170601</v>
+        <v>0.3654335435762006</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.4177214201316041</v>
+        <v>0.4179176509925756</v>
       </c>
     </row>
     <row r="18">
@@ -4927,19 +4927,19 @@
         <v>162820</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>141884</v>
+        <v>141320</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>186944</v>
+        <v>186449</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.2649131316502182</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.2308498588178164</v>
+        <v>0.2299325805712418</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.3041634134618341</v>
+        <v>0.3033581435390236</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>252</v>
@@ -4948,19 +4948,19 @@
         <v>283070</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>256897</v>
+        <v>255965</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>309880</v>
+        <v>309520</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.4593805811549902</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.4169064981682279</v>
+        <v>0.4153926273986372</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.5028894397449238</v>
+        <v>0.5023059741367579</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>399</v>
@@ -4969,19 +4969,19 @@
         <v>445890</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>410679</v>
+        <v>412347</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>481540</v>
+        <v>483444</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.362271866724806</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.3336642263256824</v>
+        <v>0.3350192751776985</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.3912359950018521</v>
+        <v>0.3927830354507424</v>
       </c>
     </row>
     <row r="20">
@@ -4998,19 +4998,19 @@
         <v>172014</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>148282</v>
+        <v>150545</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>193350</v>
+        <v>196113</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.279872553334106</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.2412585009574274</v>
+        <v>0.2449409426069896</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.3145866026125487</v>
+        <v>0.3190822818448706</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>80</v>
@@ -5019,19 +5019,19 @@
         <v>92665</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>75155</v>
+        <v>75708</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>113076</v>
+        <v>112368</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.1503808167023392</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.1219656271131009</v>
+        <v>0.1228627671683592</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.1835059614390962</v>
+        <v>0.1823563082971</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>234</v>
@@ -5040,19 +5040,19 @@
         <v>264679</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>234850</v>
+        <v>232762</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>294258</v>
+        <v>296850</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.215043443304712</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.1908083285479684</v>
+        <v>0.1891119596651348</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.2390758350316091</v>
+        <v>0.241181345146181</v>
       </c>
     </row>
     <row r="21">
@@ -5069,19 +5069,19 @@
         <v>12969</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>6692</v>
+        <v>6543</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>21707</v>
+        <v>22537</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.02110110680604083</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.0108886661014017</v>
+        <v>0.01064586183046113</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.03531734678541511</v>
+        <v>0.0366682679895186</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>15</v>
@@ -5090,19 +5090,19 @@
         <v>17216</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>9704</v>
+        <v>10160</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>28174</v>
+        <v>27802</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.02793916386986794</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.01574850087324245</v>
+        <v>0.01648851418781655</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.04572296101920634</v>
+        <v>0.04511884955985424</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>27</v>
@@ -5111,19 +5111,19 @@
         <v>30185</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>19914</v>
+        <v>20167</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>42232</v>
+        <v>43295</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.02452453107471629</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.01617984712399621</v>
+        <v>0.01638492743829012</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.03431187407722604</v>
+        <v>0.03517617861932335</v>
       </c>
     </row>
     <row r="22">
@@ -5140,19 +5140,19 @@
         <v>266813</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>240355</v>
+        <v>240757</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>291068</v>
+        <v>293204</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.4341132082096349</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.3910654296992783</v>
+        <v>0.3917190473151351</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.4735756062538362</v>
+        <v>0.4770513174201796</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>192</v>
@@ -5161,19 +5161,19 @@
         <v>223249</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>197865</v>
+        <v>199416</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>249671</v>
+        <v>250058</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.3622994382728027</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.3211063100019494</v>
+        <v>0.3236227770300992</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.4051785781771149</v>
+        <v>0.4058072991702861</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>427</v>
@@ -5182,19 +5182,19 @@
         <v>490062</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>454266</v>
+        <v>449291</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>526841</v>
+        <v>524194</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.3981601588957657</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.3690768180615954</v>
+        <v>0.3650354600308055</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.4280423202776564</v>
+        <v>0.4258912307808541</v>
       </c>
     </row>
     <row r="23">
@@ -5286,19 +5286,19 @@
         <v>125369</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>105002</v>
+        <v>107230</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>145498</v>
+        <v>145189</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.2919443514773296</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.244515839714326</v>
+        <v>0.2497045626267251</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.3388164024079315</v>
+        <v>0.33809819035952</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>300</v>
@@ -5307,19 +5307,19 @@
         <v>328212</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>309024</v>
+        <v>308200</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>347495</v>
+        <v>345689</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.7329427212956618</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.6900930379121261</v>
+        <v>0.6882533418479844</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.7760046317226896</v>
+        <v>0.7719722182640765</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>415</v>
@@ -5328,19 +5328,19 @@
         <v>453581</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>423882</v>
+        <v>419488</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>485805</v>
+        <v>482418</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.5170612069355857</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.4832055414340145</v>
+        <v>0.4781969804077105</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.5537944429525703</v>
+        <v>0.5499342205953557</v>
       </c>
     </row>
     <row r="25">
@@ -5357,19 +5357,19 @@
         <v>147690</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>129026</v>
+        <v>129375</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>168905</v>
+        <v>169339</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.343922472558609</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.3004595550415014</v>
+        <v>0.3012732507117541</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.3933243277521897</v>
+        <v>0.3943341371984628</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>46</v>
@@ -5378,19 +5378,19 @@
         <v>51760</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>38791</v>
+        <v>39264</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>67757</v>
+        <v>66879</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.1155862622638442</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.08662556216190669</v>
+        <v>0.08768128537133331</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.151310217223993</v>
+        <v>0.1493508981166435</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>182</v>
@@ -5399,19 +5399,19 @@
         <v>199450</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>173386</v>
+        <v>175136</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>227174</v>
+        <v>226590</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.22736347105938</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.1976521524066269</v>
+        <v>0.199647256628107</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.2589676427818886</v>
+        <v>0.2583020457513704</v>
       </c>
     </row>
     <row r="26">
@@ -5428,19 +5428,19 @@
         <v>6263</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>3002</v>
+        <v>2106</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>13350</v>
+        <v>12583</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.01458338523065697</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.006991487773712779</v>
+        <v>0.004904484864358452</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.031086665864982</v>
+        <v>0.02930244217918684</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>2</v>
@@ -5452,7 +5452,7 @@
         <v>0</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>7425</v>
+        <v>7657</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.004868860224022663</v>
@@ -5461,7 +5461,7 @@
         <v>0</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.01658172013625066</v>
+        <v>0.01709812437819549</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>8</v>
@@ -5470,19 +5470,19 @@
         <v>8443</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>4083</v>
+        <v>3969</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>15999</v>
+        <v>16086</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.009624402451049426</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.004654557093824133</v>
+        <v>0.004524605300712236</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.01823790206901624</v>
+        <v>0.01833684915706042</v>
       </c>
     </row>
     <row r="27">
@@ -5499,19 +5499,19 @@
         <v>150107</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>129837</v>
+        <v>129462</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>172178</v>
+        <v>170988</v>
       </c>
       <c r="G27" s="6" t="n">
         <v>0.3495497907334044</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.3023488775995928</v>
+        <v>0.3014737096332424</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.400946327224997</v>
+        <v>0.3981752607104495</v>
       </c>
       <c r="J27" s="5" t="n">
         <v>58</v>
@@ -5520,19 +5520,19 @@
         <v>65648</v>
       </c>
       <c r="L27" s="5" t="n">
-        <v>51037</v>
+        <v>51055</v>
       </c>
       <c r="M27" s="5" t="n">
-        <v>81852</v>
+        <v>82558</v>
       </c>
       <c r="N27" s="6" t="n">
         <v>0.1466021562164713</v>
       </c>
       <c r="O27" s="6" t="n">
-        <v>0.1139718588960764</v>
+        <v>0.1140124342999926</v>
       </c>
       <c r="P27" s="6" t="n">
-        <v>0.1827865231143309</v>
+        <v>0.1843631580083249</v>
       </c>
       <c r="Q27" s="5" t="n">
         <v>194</v>
@@ -5541,19 +5541,19 @@
         <v>215755</v>
       </c>
       <c r="S27" s="5" t="n">
-        <v>188643</v>
+        <v>191011</v>
       </c>
       <c r="T27" s="5" t="n">
-        <v>241544</v>
+        <v>244837</v>
       </c>
       <c r="U27" s="6" t="n">
         <v>0.2459509195539849</v>
       </c>
       <c r="V27" s="6" t="n">
-        <v>0.2150439351655547</v>
+        <v>0.2177439877530087</v>
       </c>
       <c r="W27" s="6" t="n">
-        <v>0.2753489748912556</v>
+        <v>0.2791023498082723</v>
       </c>
     </row>
     <row r="28">
@@ -5645,19 +5645,19 @@
         <v>87671</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>73382</v>
+        <v>71996</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>108356</v>
+        <v>104734</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.2830059030241696</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.2368808518174191</v>
+        <v>0.2324047505093019</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.3497774618383447</v>
+        <v>0.338084010922334</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>317</v>
@@ -5666,19 +5666,19 @@
         <v>324371</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>313069</v>
+        <v>311293</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>334156</v>
+        <v>333653</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.9163117956870088</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.8843862385977354</v>
+        <v>0.8793682821868216</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.9439550271053347</v>
+        <v>0.9425324760241867</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>396</v>
@@ -5687,19 +5687,19 @@
         <v>412042</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>383944</v>
+        <v>386530</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>435878</v>
+        <v>435980</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.6207488535821727</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.5784189372089048</v>
+        <v>0.5823152944692115</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.6566590890693119</v>
+        <v>0.6568120941679085</v>
       </c>
     </row>
     <row r="30">
@@ -5716,19 +5716,19 @@
         <v>170861</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>152091</v>
+        <v>153490</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>189143</v>
+        <v>189578</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.5515437209112708</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.4909563287476538</v>
+        <v>0.4954695926364462</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.610559078528343</v>
+        <v>0.611965122043613</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>10</v>
@@ -5737,19 +5737,19 @@
         <v>10623</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>5624</v>
+        <v>5541</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>20005</v>
+        <v>18550</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.03000754327006001</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.0158870058169456</v>
+        <v>0.01565286410018406</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.05651180918339609</v>
+        <v>0.05240182011581625</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>169</v>
@@ -5758,19 +5758,19 @@
         <v>181483</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>159114</v>
+        <v>158374</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>206693</v>
+        <v>205664</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.2734077213887431</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.2397076182374683</v>
+        <v>0.2385939634369226</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.3113861899096204</v>
+        <v>0.3098369447336183</v>
       </c>
     </row>
     <row r="31">
@@ -5790,7 +5790,7 @@
         <v>0</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>5271</v>
+        <v>5636</v>
       </c>
       <c r="G31" s="6" t="n">
         <v>0.003339318052571085</v>
@@ -5799,7 +5799,7 @@
         <v>0</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.017015788700529</v>
+        <v>0.01819368059749892</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>1</v>
@@ -5811,7 +5811,7 @@
         <v>0</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>4931</v>
+        <v>4940</v>
       </c>
       <c r="N31" s="6" t="n">
         <v>0.002784299031064912</v>
@@ -5820,7 +5820,7 @@
         <v>0</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.01393076573863165</v>
+        <v>0.01395504532095242</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>2</v>
@@ -5832,7 +5832,7 @@
         <v>0</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>7308</v>
+        <v>7086</v>
       </c>
       <c r="U31" s="6" t="n">
         <v>0.003043325603880721</v>
@@ -5841,7 +5841,7 @@
         <v>0</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.01100902243364877</v>
+        <v>0.0106751860186145</v>
       </c>
     </row>
     <row r="32">
@@ -5858,19 +5858,19 @@
         <v>50220</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>37814</v>
+        <v>37073</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>65254</v>
+        <v>65933</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.1621110580119886</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.1220661735762664</v>
+        <v>0.1196744945104087</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.2106417490775293</v>
+        <v>0.2128345677319174</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>16</v>
@@ -5879,19 +5879,19 @@
         <v>18017</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>10555</v>
+        <v>10242</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>28136</v>
+        <v>29369</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.05089636201186626</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.02981715970147594</v>
+        <v>0.0289326019841092</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.07948015681792982</v>
+        <v>0.08296431909077785</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>59</v>
@@ -5900,19 +5900,19 @@
         <v>68237</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>53530</v>
+        <v>54606</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>88715</v>
+        <v>87617</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.1028000994252034</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.08064432381863861</v>
+        <v>0.08226525350026855</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.1336513547618804</v>
+        <v>0.1319960512397095</v>
       </c>
     </row>
     <row r="33">
@@ -6004,19 +6004,19 @@
         <v>79239</v>
       </c>
       <c r="E34" s="5" t="n">
-        <v>65173</v>
+        <v>64549</v>
       </c>
       <c r="F34" s="5" t="n">
-        <v>96811</v>
+        <v>95040</v>
       </c>
       <c r="G34" s="6" t="n">
         <v>0.3171459964514983</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>0.2608459223465773</v>
+        <v>0.2583514511805665</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>0.3874734834224842</v>
+        <v>0.3803878687988592</v>
       </c>
       <c r="J34" s="5" t="n">
         <v>341</v>
@@ -6025,19 +6025,19 @@
         <v>378543</v>
       </c>
       <c r="L34" s="5" t="n">
-        <v>368293</v>
+        <v>369667</v>
       </c>
       <c r="M34" s="5" t="n">
-        <v>383850</v>
+        <v>384013</v>
       </c>
       <c r="N34" s="6" t="n">
         <v>0.9731697470111795</v>
       </c>
       <c r="O34" s="6" t="n">
-        <v>0.9468208003165921</v>
+        <v>0.9503533235506729</v>
       </c>
       <c r="P34" s="6" t="n">
-        <v>0.9868149030441666</v>
+        <v>0.9872324355140465</v>
       </c>
       <c r="Q34" s="5" t="n">
         <v>409</v>
@@ -6046,19 +6046,19 @@
         <v>457782</v>
       </c>
       <c r="S34" s="5" t="n">
-        <v>433420</v>
+        <v>431575</v>
       </c>
       <c r="T34" s="5" t="n">
-        <v>480856</v>
+        <v>481291</v>
       </c>
       <c r="U34" s="6" t="n">
         <v>0.7165942384009415</v>
       </c>
       <c r="V34" s="6" t="n">
-        <v>0.6784583760945191</v>
+        <v>0.6755701911074891</v>
       </c>
       <c r="W34" s="6" t="n">
-        <v>0.7527134218340051</v>
+        <v>0.7533949360426369</v>
       </c>
     </row>
     <row r="35">
@@ -6075,19 +6075,19 @@
         <v>143560</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>125531</v>
+        <v>125944</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>158453</v>
+        <v>158559</v>
       </c>
       <c r="G35" s="6" t="n">
         <v>0.5745831685919058</v>
       </c>
       <c r="H35" s="6" t="n">
-        <v>0.5024238701155493</v>
+        <v>0.5040758000720633</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>0.6341905105245724</v>
+        <v>0.6346143600418576</v>
       </c>
       <c r="J35" s="5" t="n">
         <v>6</v>
@@ -6096,19 +6096,19 @@
         <v>6408</v>
       </c>
       <c r="L35" s="5" t="n">
-        <v>2261</v>
+        <v>2207</v>
       </c>
       <c r="M35" s="5" t="n">
-        <v>13325</v>
+        <v>13144</v>
       </c>
       <c r="N35" s="6" t="n">
         <v>0.01647341813404246</v>
       </c>
       <c r="O35" s="6" t="n">
-        <v>0.005811789046335264</v>
+        <v>0.005674558728179836</v>
       </c>
       <c r="P35" s="6" t="n">
-        <v>0.03425669534134029</v>
+        <v>0.03379223339615067</v>
       </c>
       <c r="Q35" s="5" t="n">
         <v>136</v>
@@ -6117,19 +6117,19 @@
         <v>149968</v>
       </c>
       <c r="S35" s="5" t="n">
-        <v>130537</v>
+        <v>127128</v>
       </c>
       <c r="T35" s="5" t="n">
-        <v>176717</v>
+        <v>173515</v>
       </c>
       <c r="U35" s="6" t="n">
         <v>0.2347540717870417</v>
       </c>
       <c r="V35" s="6" t="n">
-        <v>0.2043378663953327</v>
+        <v>0.1990019535462462</v>
       </c>
       <c r="W35" s="6" t="n">
-        <v>0.2766267027969277</v>
+        <v>0.2716137096560103</v>
       </c>
     </row>
     <row r="36">
@@ -6149,7 +6149,7 @@
         <v>0</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>13416</v>
+        <v>12253</v>
       </c>
       <c r="G36" s="6" t="n">
         <v>0.01336063705027904</v>
@@ -6158,7 +6158,7 @@
         <v>0</v>
       </c>
       <c r="I36" s="6" t="n">
-        <v>0.05369544866257525</v>
+        <v>0.04904184585239894</v>
       </c>
       <c r="J36" s="5" t="n">
         <v>0</v>
@@ -6183,7 +6183,7 @@
         <v>0</v>
       </c>
       <c r="T36" s="5" t="n">
-        <v>12274</v>
+        <v>12777</v>
       </c>
       <c r="U36" s="6" t="n">
         <v>0.005225439236929386</v>
@@ -6192,7 +6192,7 @@
         <v>0</v>
       </c>
       <c r="W36" s="6" t="n">
-        <v>0.01921374936184517</v>
+        <v>0.02000030543207979</v>
       </c>
     </row>
     <row r="37">
@@ -6209,19 +6209,19 @@
         <v>23713</v>
       </c>
       <c r="E37" s="5" t="n">
-        <v>15478</v>
+        <v>15185</v>
       </c>
       <c r="F37" s="5" t="n">
-        <v>34407</v>
+        <v>34187</v>
       </c>
       <c r="G37" s="6" t="n">
         <v>0.09491019790631679</v>
       </c>
       <c r="H37" s="6" t="n">
-        <v>0.06194729527340019</v>
+        <v>0.06077458429881097</v>
       </c>
       <c r="I37" s="6" t="n">
-        <v>0.1377097769660534</v>
+        <v>0.1368285601888081</v>
       </c>
       <c r="J37" s="5" t="n">
         <v>3</v>
@@ -6233,16 +6233,16 @@
         <v>1006</v>
       </c>
       <c r="M37" s="5" t="n">
-        <v>11696</v>
+        <v>11906</v>
       </c>
       <c r="N37" s="6" t="n">
         <v>0.01035683485477804</v>
       </c>
       <c r="O37" s="6" t="n">
-        <v>0.002587251847225311</v>
+        <v>0.002587159501108674</v>
       </c>
       <c r="P37" s="6" t="n">
-        <v>0.03006945884964777</v>
+        <v>0.03060794035435366</v>
       </c>
       <c r="Q37" s="5" t="n">
         <v>25</v>
@@ -6251,19 +6251,19 @@
         <v>27742</v>
       </c>
       <c r="S37" s="5" t="n">
-        <v>18036</v>
+        <v>18147</v>
       </c>
       <c r="T37" s="5" t="n">
-        <v>40029</v>
+        <v>40393</v>
       </c>
       <c r="U37" s="6" t="n">
         <v>0.04342625057508746</v>
       </c>
       <c r="V37" s="6" t="n">
-        <v>0.02823288470416071</v>
+        <v>0.02840688642194426</v>
       </c>
       <c r="W37" s="6" t="n">
-        <v>0.06266064355606964</v>
+        <v>0.0632304235397687</v>
       </c>
     </row>
     <row r="38">
@@ -6355,19 +6355,19 @@
         <v>1231874</v>
       </c>
       <c r="E39" s="5" t="n">
-        <v>1173768</v>
+        <v>1175553</v>
       </c>
       <c r="F39" s="5" t="n">
-        <v>1290552</v>
+        <v>1291020</v>
       </c>
       <c r="G39" s="6" t="n">
         <v>0.3595925917130339</v>
       </c>
       <c r="H39" s="6" t="n">
-        <v>0.3426311780195975</v>
+        <v>0.3431520710401239</v>
       </c>
       <c r="I39" s="6" t="n">
-        <v>0.376721196682845</v>
+        <v>0.37685773818117</v>
       </c>
       <c r="J39" s="5" t="n">
         <v>2038</v>
@@ -6376,19 +6376,19 @@
         <v>2186836</v>
       </c>
       <c r="L39" s="5" t="n">
-        <v>2124158</v>
+        <v>2128198</v>
       </c>
       <c r="M39" s="5" t="n">
-        <v>2246797</v>
+        <v>2252840</v>
       </c>
       <c r="N39" s="6" t="n">
         <v>0.6149142795151091</v>
       </c>
       <c r="O39" s="6" t="n">
-        <v>0.5972899294813295</v>
+        <v>0.5984258070145581</v>
       </c>
       <c r="P39" s="6" t="n">
-        <v>0.6317744915141436</v>
+        <v>0.6334739281354921</v>
       </c>
       <c r="Q39" s="5" t="n">
         <v>3199</v>
@@ -6397,19 +6397,19 @@
         <v>3418710</v>
       </c>
       <c r="S39" s="5" t="n">
-        <v>3326954</v>
+        <v>3333301</v>
       </c>
       <c r="T39" s="5" t="n">
-        <v>3500897</v>
+        <v>3506043</v>
       </c>
       <c r="U39" s="6" t="n">
         <v>0.4896409307658535</v>
       </c>
       <c r="V39" s="6" t="n">
-        <v>0.4764992526307606</v>
+        <v>0.4774083205869287</v>
       </c>
       <c r="W39" s="6" t="n">
-        <v>0.5014121042683688</v>
+        <v>0.5021490608342807</v>
       </c>
     </row>
     <row r="40">
@@ -6426,19 +6426,19 @@
         <v>838839</v>
       </c>
       <c r="E40" s="5" t="n">
-        <v>788319</v>
+        <v>787011</v>
       </c>
       <c r="F40" s="5" t="n">
-        <v>894826</v>
+        <v>892730</v>
       </c>
       <c r="G40" s="6" t="n">
         <v>0.2448628410866639</v>
       </c>
       <c r="H40" s="6" t="n">
-        <v>0.2301158886540551</v>
+        <v>0.2297341392484305</v>
       </c>
       <c r="I40" s="6" t="n">
-        <v>0.2612059132673246</v>
+        <v>0.260594101140626</v>
       </c>
       <c r="J40" s="5" t="n">
         <v>360</v>
@@ -6447,19 +6447,19 @@
         <v>393221</v>
       </c>
       <c r="L40" s="5" t="n">
-        <v>354820</v>
+        <v>354368</v>
       </c>
       <c r="M40" s="5" t="n">
-        <v>432538</v>
+        <v>431565</v>
       </c>
       <c r="N40" s="6" t="n">
         <v>0.1105693633877676</v>
       </c>
       <c r="O40" s="6" t="n">
-        <v>0.09977134598354585</v>
+        <v>0.09964432216209304</v>
       </c>
       <c r="P40" s="6" t="n">
-        <v>0.1216249931697448</v>
+        <v>0.121351314259714</v>
       </c>
       <c r="Q40" s="5" t="n">
         <v>1137</v>
@@ -6468,19 +6468,19 @@
         <v>1232059</v>
       </c>
       <c r="S40" s="5" t="n">
-        <v>1169375</v>
+        <v>1168607</v>
       </c>
       <c r="T40" s="5" t="n">
-        <v>1300502</v>
+        <v>1294259</v>
       </c>
       <c r="U40" s="6" t="n">
         <v>0.1764603333690003</v>
       </c>
       <c r="V40" s="6" t="n">
-        <v>0.1674823990326915</v>
+        <v>0.1673724776629829</v>
       </c>
       <c r="W40" s="6" t="n">
-        <v>0.1862629307649648</v>
+        <v>0.1853687491612746</v>
       </c>
     </row>
     <row r="41">
@@ -6497,19 +6497,19 @@
         <v>95901</v>
       </c>
       <c r="E41" s="5" t="n">
-        <v>75643</v>
+        <v>77124</v>
       </c>
       <c r="F41" s="5" t="n">
-        <v>119350</v>
+        <v>117153</v>
       </c>
       <c r="G41" s="6" t="n">
         <v>0.02799415798350346</v>
       </c>
       <c r="H41" s="6" t="n">
-        <v>0.02208069570312615</v>
+        <v>0.02251289877533076</v>
       </c>
       <c r="I41" s="6" t="n">
-        <v>0.03483919590397055</v>
+        <v>0.03419780491774872</v>
       </c>
       <c r="J41" s="5" t="n">
         <v>67</v>
@@ -6518,19 +6518,19 @@
         <v>73860</v>
       </c>
       <c r="L41" s="5" t="n">
-        <v>57160</v>
+        <v>57291</v>
       </c>
       <c r="M41" s="5" t="n">
-        <v>92906</v>
+        <v>93652</v>
       </c>
       <c r="N41" s="6" t="n">
         <v>0.02076850746056167</v>
       </c>
       <c r="O41" s="6" t="n">
-        <v>0.01607267565131639</v>
+        <v>0.01610957078337414</v>
       </c>
       <c r="P41" s="6" t="n">
-        <v>0.02612403102569129</v>
+        <v>0.02633388846083938</v>
       </c>
       <c r="Q41" s="5" t="n">
         <v>157</v>
@@ -6539,19 +6539,19 @@
         <v>169761</v>
       </c>
       <c r="S41" s="5" t="n">
-        <v>144584</v>
+        <v>143729</v>
       </c>
       <c r="T41" s="5" t="n">
-        <v>198886</v>
+        <v>198567</v>
       </c>
       <c r="U41" s="6" t="n">
         <v>0.02431376617200503</v>
       </c>
       <c r="V41" s="6" t="n">
-        <v>0.02070785638233402</v>
+        <v>0.02058544392406543</v>
       </c>
       <c r="W41" s="6" t="n">
-        <v>0.02848526805732056</v>
+        <v>0.02843949388107034</v>
       </c>
     </row>
     <row r="42">
@@ -6568,19 +6568,19 @@
         <v>1259135</v>
       </c>
       <c r="E42" s="5" t="n">
-        <v>1205545</v>
+        <v>1204804</v>
       </c>
       <c r="F42" s="5" t="n">
-        <v>1322655</v>
+        <v>1321324</v>
       </c>
       <c r="G42" s="6" t="n">
         <v>0.3675504092167987</v>
       </c>
       <c r="H42" s="6" t="n">
-        <v>0.3519070713502759</v>
+        <v>0.3516907554976396</v>
       </c>
       <c r="I42" s="6" t="n">
-        <v>0.3860923104330597</v>
+        <v>0.3857037870982581</v>
       </c>
       <c r="J42" s="5" t="n">
         <v>831</v>
@@ -6589,19 +6589,19 @@
         <v>902410</v>
       </c>
       <c r="L42" s="5" t="n">
-        <v>847531</v>
+        <v>848360</v>
       </c>
       <c r="M42" s="5" t="n">
-        <v>959085</v>
+        <v>957759</v>
       </c>
       <c r="N42" s="6" t="n">
         <v>0.2537478496365617</v>
       </c>
       <c r="O42" s="6" t="n">
-        <v>0.2383162548398573</v>
+        <v>0.2385494381345604</v>
       </c>
       <c r="P42" s="6" t="n">
-        <v>0.2696840887902998</v>
+        <v>0.269311392807399</v>
       </c>
       <c r="Q42" s="5" t="n">
         <v>2011</v>
@@ -6610,19 +6610,19 @@
         <v>2161546</v>
       </c>
       <c r="S42" s="5" t="n">
-        <v>2086020</v>
+        <v>2085651</v>
       </c>
       <c r="T42" s="5" t="n">
-        <v>2247937</v>
+        <v>2247997</v>
       </c>
       <c r="U42" s="6" t="n">
         <v>0.3095849696931411</v>
       </c>
       <c r="V42" s="6" t="n">
-        <v>0.2987679426513377</v>
+        <v>0.2987150415814971</v>
       </c>
       <c r="W42" s="6" t="n">
-        <v>0.3219581933833228</v>
+        <v>0.321966839837012</v>
       </c>
     </row>
     <row r="43">
@@ -6957,19 +6957,19 @@
         <v>263507</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>242900</v>
+        <v>241787</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>283590</v>
+        <v>284294</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.6282017848844537</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.5790742870129394</v>
+        <v>0.5764193768613172</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.6760776315535131</v>
+        <v>0.677757302426429</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>276</v>
@@ -6978,19 +6978,19 @@
         <v>269200</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>250717</v>
+        <v>251133</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>287869</v>
+        <v>286649</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.6802195993082246</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.6335166878181131</v>
+        <v>0.6345666409708093</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.7273916781346558</v>
+        <v>0.7243101149757498</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>523</v>
@@ -6999,19 +6999,19 @@
         <v>532708</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>506873</v>
+        <v>505457</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>560171</v>
+        <v>564778</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.6534543066199514</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.6217641744102245</v>
+        <v>0.6200268355162782</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.6871427612850319</v>
+        <v>0.6927942610320991</v>
       </c>
     </row>
     <row r="5">
@@ -7028,19 +7028,19 @@
         <v>10402</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>5129</v>
+        <v>5151</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>17662</v>
+        <v>17892</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.02479838196313424</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.01222692498977323</v>
+        <v>0.01227949211679079</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.04210728853931048</v>
+        <v>0.04265549549477327</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>20</v>
@@ -7049,19 +7049,19 @@
         <v>20155</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>12259</v>
+        <v>12679</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>30064</v>
+        <v>30839</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.05092828870247254</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.03097693339330312</v>
+        <v>0.03203853460267229</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.07596580185768168</v>
+        <v>0.07792533663654268</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>30</v>
@@ -7070,19 +7070,19 @@
         <v>30557</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>21566</v>
+        <v>20231</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>44302</v>
+        <v>41469</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.03748338315342136</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.02645437016165906</v>
+        <v>0.02481641927407443</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.0543433201110417</v>
+        <v>0.05086826682312683</v>
       </c>
     </row>
     <row r="6">
@@ -7099,19 +7099,19 @@
         <v>12639</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>6835</v>
+        <v>6509</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>21387</v>
+        <v>20941</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.03013031945446433</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.01629382458023304</v>
+        <v>0.01551782456401181</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.05098706525873362</v>
+        <v>0.0499226591188591</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>12</v>
@@ -7120,19 +7120,19 @@
         <v>12216</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>6609</v>
+        <v>6431</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>21576</v>
+        <v>21139</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.03086685035390105</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.01669950161724037</v>
+        <v>0.01625040586570016</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.05451768794006026</v>
+        <v>0.0534140374906879</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>24</v>
@@ -7141,19 +7141,19 @@
         <v>24854</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>16459</v>
+        <v>15995</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>36918</v>
+        <v>36129</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.03048787508714374</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.02019009590116452</v>
+        <v>0.01962023956799139</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.04528653875514126</v>
+        <v>0.04431820977320353</v>
       </c>
     </row>
     <row r="7">
@@ -7170,19 +7170,19 @@
         <v>132915</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>113921</v>
+        <v>113162</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>151112</v>
+        <v>154503</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.3168695136979477</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.2715878022609839</v>
+        <v>0.2697790224415845</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.3602516442843052</v>
+        <v>0.3683360664502305</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>96</v>
@@ -7191,19 +7191,19 @@
         <v>94184</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>77528</v>
+        <v>78585</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>111030</v>
+        <v>110346</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.2379852616354018</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.1958991665282049</v>
+        <v>0.1985690347858448</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.2805515733473133</v>
+        <v>0.2788241096069183</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>220</v>
@@ -7212,19 +7212,19 @@
         <v>227099</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>201908</v>
+        <v>199107</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>252228</v>
+        <v>252827</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.2785744351394835</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.2476742285494793</v>
+        <v>0.2442377002868463</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.3093988711189094</v>
+        <v>0.3101336763624947</v>
       </c>
     </row>
     <row r="8">
@@ -7316,19 +7316,19 @@
         <v>271620</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>243818</v>
+        <v>248762</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>295967</v>
+        <v>296727</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.4599857731135031</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.4129040186304515</v>
+        <v>0.4212770308954185</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.501218194954918</v>
+        <v>0.5025053856035757</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>297</v>
@@ -7337,19 +7337,19 @@
         <v>288209</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>266124</v>
+        <v>266746</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>311408</v>
+        <v>310339</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.5114228841023207</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.4722326403407054</v>
+        <v>0.4733359364346154</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.5525886221784423</v>
+        <v>0.550692286677535</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>561</v>
@@ -7358,19 +7358,19 @@
         <v>559829</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>524763</v>
+        <v>529105</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>592811</v>
+        <v>591850</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.4851036722930269</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.4547183566496349</v>
+        <v>0.4584810486897662</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.5136835506413576</v>
+        <v>0.5128508170081807</v>
       </c>
     </row>
     <row r="10">
@@ -7387,19 +7387,19 @@
         <v>49176</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>36418</v>
+        <v>36374</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>64223</v>
+        <v>65152</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.08327848969847462</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.06167352173761365</v>
+        <v>0.06159884168845857</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.1087607208340288</v>
+        <v>0.1103343870903742</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>62</v>
@@ -7408,19 +7408,19 @@
         <v>60759</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>47018</v>
+        <v>47306</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>75941</v>
+        <v>75925</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.107816450518917</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.08343207617912263</v>
+        <v>0.08394460079699353</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.1347565225157048</v>
+        <v>0.1347274690245617</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>108</v>
@@ -7429,19 +7429,19 @@
         <v>109935</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>91587</v>
+        <v>92086</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>132288</v>
+        <v>131244</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.09526092833296497</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.07936231136279488</v>
+        <v>0.0797947962221844</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.114630642828173</v>
+        <v>0.1137254860467802</v>
       </c>
     </row>
     <row r="11">
@@ -7458,19 +7458,19 @@
         <v>29098</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>19341</v>
+        <v>19616</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>40202</v>
+        <v>39774</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.04927761038416969</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.03275420399315636</v>
+        <v>0.03321995261030485</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.06808213258154924</v>
+        <v>0.06735701685455669</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>25</v>
@@ -7479,19 +7479,19 @@
         <v>24139</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>15866</v>
+        <v>16758</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>35046</v>
+        <v>35904</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.04283365145762453</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.02815392041807698</v>
+        <v>0.02973685534094572</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.06218930674686442</v>
+        <v>0.06371138091223852</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>54</v>
@@ -7500,19 +7500,19 @@
         <v>53237</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>41129</v>
+        <v>39774</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>68174</v>
+        <v>68292</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.04613088018252322</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.03563943446790171</v>
+        <v>0.03446530617575127</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.05907453299648501</v>
+        <v>0.05917635176422237</v>
       </c>
     </row>
     <row r="12">
@@ -7529,19 +7529,19 @@
         <v>240602</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>217533</v>
+        <v>215407</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>268170</v>
+        <v>264718</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.4074581268038526</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.3683898017029881</v>
+        <v>0.3647899986002384</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.4541444159604447</v>
+        <v>0.448297700696174</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>195</v>
@@ -7550,19 +7550,19 @@
         <v>190437</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>168866</v>
+        <v>169726</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>211426</v>
+        <v>213597</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.3379270139211378</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.2996494661529125</v>
+        <v>0.3011764717238399</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.375172334281086</v>
+        <v>0.3790246542496899</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>423</v>
@@ -7571,19 +7571,19 @@
         <v>431039</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>398839</v>
+        <v>397145</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>466674</v>
+        <v>461747</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.3735045191914849</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.3456028156209829</v>
+        <v>0.344134167147963</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.4043828456435412</v>
+        <v>0.4001131354402617</v>
       </c>
     </row>
     <row r="13">
@@ -7675,19 +7675,19 @@
         <v>316116</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>292075</v>
+        <v>291501</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>343445</v>
+        <v>343560</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.4732094669760707</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.4372217521044817</v>
+        <v>0.4363631555953282</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.5141200111968924</v>
+        <v>0.5142927112672886</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>341</v>
@@ -7696,19 +7696,19 @@
         <v>340764</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>314917</v>
+        <v>315253</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>365677</v>
+        <v>363862</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.5159495396657032</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.4768157260874816</v>
+        <v>0.477324394005174</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.5536712402767445</v>
+        <v>0.550922270928636</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>646</v>
@@ -7717,19 +7717,19 @@
         <v>656879</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>618585</v>
+        <v>625011</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>692421</v>
+        <v>693988</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.494457794003644</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.4656327993958586</v>
+        <v>0.4704698672687755</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.5212114816716942</v>
+        <v>0.5223914256109343</v>
       </c>
     </row>
     <row r="15">
@@ -7746,19 +7746,19 @@
         <v>84915</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>69147</v>
+        <v>69985</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>106371</v>
+        <v>105375</v>
       </c>
       <c r="G15" s="6" t="n">
         <v>0.1271135925368288</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.1035101199206169</v>
+        <v>0.1047643438521501</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.1592317735634357</v>
+        <v>0.1577406801365232</v>
       </c>
       <c r="J15" s="5" t="n">
         <v>98</v>
@@ -7767,19 +7767,19 @@
         <v>99152</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>80790</v>
+        <v>82692</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>119286</v>
+        <v>119690</v>
       </c>
       <c r="N15" s="6" t="n">
         <v>0.1501253636462815</v>
       </c>
       <c r="O15" s="6" t="n">
-        <v>0.1223236588670984</v>
+        <v>0.1252030904383351</v>
       </c>
       <c r="P15" s="6" t="n">
-        <v>0.1806106163821745</v>
+        <v>0.1812227602522096</v>
       </c>
       <c r="Q15" s="5" t="n">
         <v>177</v>
@@ -7788,19 +7788,19 @@
         <v>184067</v>
       </c>
       <c r="S15" s="5" t="n">
-        <v>159571</v>
+        <v>159078</v>
       </c>
       <c r="T15" s="5" t="n">
-        <v>209537</v>
+        <v>210711</v>
       </c>
       <c r="U15" s="6" t="n">
         <v>0.1385539483258334</v>
       </c>
       <c r="V15" s="6" t="n">
-        <v>0.1201153846032167</v>
+        <v>0.1197440457998885</v>
       </c>
       <c r="W15" s="6" t="n">
-        <v>0.1577262310976494</v>
+        <v>0.1586098891889244</v>
       </c>
     </row>
     <row r="16">
@@ -7817,19 +7817,19 @@
         <v>20341</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>12200</v>
+        <v>12634</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>32714</v>
+        <v>32630</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.03044949555901688</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.01826213078754633</v>
+        <v>0.01891264810311418</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.04897130908463867</v>
+        <v>0.04884489877018417</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>12</v>
@@ -7838,19 +7838,19 @@
         <v>11182</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>5621</v>
+        <v>5672</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>18367</v>
+        <v>18529</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.01693001302976018</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.008510875187400894</v>
+        <v>0.008587806793706659</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.0278097675679619</v>
+        <v>0.02805459687846424</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>30</v>
@@ -7859,19 +7859,19 @@
         <v>31523</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>21555</v>
+        <v>20958</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>43261</v>
+        <v>44192</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.02372825322255046</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.01622560064380468</v>
+        <v>0.01577604773928712</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.03256428558130654</v>
+        <v>0.03326513717940432</v>
       </c>
     </row>
     <row r="17">
@@ -7888,19 +7888,19 @@
         <v>246653</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>222270</v>
+        <v>220991</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>272572</v>
+        <v>272693</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.3692274449280836</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.3327274420273425</v>
+        <v>0.3308131908428664</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.4080261488506125</v>
+        <v>0.4082084657804869</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>213</v>
@@ -7909,19 +7909,19 @@
         <v>209362</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>185361</v>
+        <v>188904</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>234126</v>
+        <v>234502</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.3169950836582551</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.2806544775916919</v>
+        <v>0.2860193776036448</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.3544892875422539</v>
+        <v>0.3550588932717799</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>448</v>
@@ -7930,19 +7930,19 @@
         <v>456015</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>420128</v>
+        <v>420001</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>492235</v>
+        <v>486955</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.3432600044479721</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.3162461271641595</v>
+        <v>0.3161509875659939</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.3705242772861687</v>
+        <v>0.3665493220254447</v>
       </c>
     </row>
     <row r="18">
@@ -8034,19 +8034,19 @@
         <v>237464</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>211410</v>
+        <v>212459</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>262378</v>
+        <v>261623</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.3675641356557824</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.3272363977136335</v>
+        <v>0.3288595311968787</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.4061280755686876</v>
+        <v>0.4049588902018568</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>295</v>
@@ -8055,19 +8055,19 @@
         <v>314557</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>289933</v>
+        <v>290067</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>339782</v>
+        <v>341409</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.4862074991266614</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.448146705814758</v>
+        <v>0.4483533796120318</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.5251970780166446</v>
+        <v>0.527711317780352</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>512</v>
@@ -8076,19 +8076,19 @@
         <v>552021</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>516291</v>
+        <v>517848</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>590935</v>
+        <v>591361</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.4269276722737093</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.3992941265607519</v>
+        <v>0.4004987101094272</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.457022836369731</v>
+        <v>0.4573524865050469</v>
       </c>
     </row>
     <row r="20">
@@ -8105,19 +8105,19 @@
         <v>130786</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>110771</v>
+        <v>111493</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>155833</v>
+        <v>152851</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.2024399752478049</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.1714599649288282</v>
+        <v>0.1725768428629697</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.2412099291523691</v>
+        <v>0.2365939047923596</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>94</v>
@@ -8126,19 +8126,19 @@
         <v>101575</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>83206</v>
+        <v>84788</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>121382</v>
+        <v>123821</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.1570030263700017</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.1286100949372868</v>
+        <v>0.1310563610727023</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.1876194457878307</v>
+        <v>0.1913884880540639</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>213</v>
@@ -8147,19 +8147,19 @@
         <v>232361</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>204219</v>
+        <v>207108</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>261672</v>
+        <v>263006</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.17970547160929</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.1579412230367741</v>
+        <v>0.1601752825273733</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.2023743223542818</v>
+        <v>0.2034057987780654</v>
       </c>
     </row>
     <row r="21">
@@ -8176,19 +8176,19 @@
         <v>8709</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>3473</v>
+        <v>4037</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>17536</v>
+        <v>18333</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.01348037127922567</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.005374991581803803</v>
+        <v>0.006249523904257848</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.02714313800952155</v>
+        <v>0.028377787338566</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>12</v>
@@ -8197,19 +8197,19 @@
         <v>14433</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>7352</v>
+        <v>7467</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>24104</v>
+        <v>24343</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.02230863010585601</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.01136368303620073</v>
+        <v>0.01154201617927672</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.03725772075240188</v>
+        <v>0.03762696975900537</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>19</v>
@@ -8218,19 +8218,19 @@
         <v>23142</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>13941</v>
+        <v>13646</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>35904</v>
+        <v>34670</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.01789761511651659</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.01078205490847785</v>
+        <v>0.01055366048651435</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.02776762568962525</v>
+        <v>0.02681367649524013</v>
       </c>
     </row>
     <row r="22">
@@ -8247,19 +8247,19 @@
         <v>269089</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>243062</v>
+        <v>243078</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>297798</v>
+        <v>296010</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.416515517817187</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.3762295451309896</v>
+        <v>0.3762530236176652</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.4609534971610893</v>
+        <v>0.4581854228292328</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>199</v>
@@ -8268,19 +8268,19 @@
         <v>216396</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>193107</v>
+        <v>192439</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>242027</v>
+        <v>241522</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.3344808443974809</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.2984832622118792</v>
+        <v>0.2974511611029121</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.3740986441132422</v>
+        <v>0.3733169862164412</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>438</v>
@@ -8289,19 +8289,19 @@
         <v>485485</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>450577</v>
+        <v>448708</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>525301</v>
+        <v>521053</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.3754692410004841</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.3484719370617684</v>
+        <v>0.3470258521537082</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.4062622296027031</v>
+        <v>0.4029771461028677</v>
       </c>
     </row>
     <row r="23">
@@ -8393,19 +8393,19 @@
         <v>171131</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>151031</v>
+        <v>150472</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>194048</v>
+        <v>194150</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.3580760818190898</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.3160193951637897</v>
+        <v>0.3148495719232764</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.4060276060720874</v>
+        <v>0.4062417362980342</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>276</v>
@@ -8414,19 +8414,19 @@
         <v>312217</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>288956</v>
+        <v>288180</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>334171</v>
+        <v>333439</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.629799403739409</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.5828784858945762</v>
+        <v>0.5813137497390702</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.674085560798436</v>
+        <v>0.6726083872636651</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>427</v>
@@ -8435,19 +8435,19 @@
         <v>483348</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>448750</v>
+        <v>451810</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>514706</v>
+        <v>518080</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.4964245713200615</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.4608905144644431</v>
+        <v>0.4640332550254109</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.5286315649234845</v>
+        <v>0.5320963434984274</v>
       </c>
     </row>
     <row r="25">
@@ -8464,19 +8464,19 @@
         <v>159951</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>138620</v>
+        <v>138023</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>182256</v>
+        <v>181078</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.3346823544153105</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.2900499690342322</v>
+        <v>0.2888010847287563</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.3813532311986044</v>
+        <v>0.3788901961167307</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>58</v>
@@ -8485,19 +8485,19 @@
         <v>69436</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>55338</v>
+        <v>54629</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>89445</v>
+        <v>87481</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.1400652285880867</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.1116264641845903</v>
+        <v>0.1101976453101139</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.1804271710675501</v>
+        <v>0.1764663337789448</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>201</v>
@@ -8506,19 +8506,19 @@
         <v>229387</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>203690</v>
+        <v>203330</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>256851</v>
+        <v>256766</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.2355926436060465</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.2092009605824736</v>
+        <v>0.2088314969132197</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.2638002065781182</v>
+        <v>0.2637125714365726</v>
       </c>
     </row>
     <row r="26">
@@ -8535,19 +8535,19 @@
         <v>9350</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>4266</v>
+        <v>4255</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>18843</v>
+        <v>19506</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.01956303962237292</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.008925245411788907</v>
+        <v>0.008902498248743514</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.03942808053877151</v>
+        <v>0.04081446130269369</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>6</v>
@@ -8556,19 +8556,19 @@
         <v>6679</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>2280</v>
+        <v>2232</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>13601</v>
+        <v>13419</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.01347230161541235</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.004599899299031113</v>
+        <v>0.004501533204431877</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.02743490064672786</v>
+        <v>0.027068471425445</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>14</v>
@@ -8577,19 +8577,19 @@
         <v>16028</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>9491</v>
+        <v>8791</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>25303</v>
+        <v>26593</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.0164619278103502</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.009748017120644457</v>
+        <v>0.009028655974689104</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.02598768379420967</v>
+        <v>0.0273122492804932</v>
       </c>
     </row>
     <row r="27">
@@ -8606,19 +8606,19 @@
         <v>137487</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>119085</v>
+        <v>116835</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>158462</v>
+        <v>160184</v>
       </c>
       <c r="G27" s="6" t="n">
         <v>0.2876785241432268</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.249174804292275</v>
+        <v>0.2444664625980504</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.3315670917303674</v>
+        <v>0.3351713335659697</v>
       </c>
       <c r="J27" s="5" t="n">
         <v>92</v>
@@ -8627,19 +8627,19 @@
         <v>107409</v>
       </c>
       <c r="L27" s="5" t="n">
-        <v>89204</v>
+        <v>89055</v>
       </c>
       <c r="M27" s="5" t="n">
-        <v>129252</v>
+        <v>129628</v>
       </c>
       <c r="N27" s="6" t="n">
         <v>0.216663066057092</v>
       </c>
       <c r="O27" s="6" t="n">
-        <v>0.1799421031899369</v>
+        <v>0.1796402638926685</v>
       </c>
       <c r="P27" s="6" t="n">
-        <v>0.2607248319608542</v>
+        <v>0.2614837771111235</v>
       </c>
       <c r="Q27" s="5" t="n">
         <v>214</v>
@@ -8648,19 +8648,19 @@
         <v>244895</v>
       </c>
       <c r="S27" s="5" t="n">
-        <v>217346</v>
+        <v>216442</v>
       </c>
       <c r="T27" s="5" t="n">
-        <v>273670</v>
+        <v>275045</v>
       </c>
       <c r="U27" s="6" t="n">
         <v>0.2515208572635418</v>
       </c>
       <c r="V27" s="6" t="n">
-        <v>0.2232265461000185</v>
+        <v>0.2222973291333173</v>
       </c>
       <c r="W27" s="6" t="n">
-        <v>0.2810744417425015</v>
+        <v>0.2824862197294259</v>
       </c>
     </row>
     <row r="28">
@@ -8752,19 +8752,19 @@
         <v>134734</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>116763</v>
+        <v>114532</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>151445</v>
+        <v>151408</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.402997409272759</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.3492462319762736</v>
+        <v>0.3425716434751556</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.4529792666502638</v>
+        <v>0.4528699452265564</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>297</v>
@@ -8773,19 +8773,19 @@
         <v>315999</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>301513</v>
+        <v>301278</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>330435</v>
+        <v>331039</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.836501888502562</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.7981551428335992</v>
+        <v>0.7975325974466136</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.874717676431839</v>
+        <v>0.8763161827387499</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>429</v>
@@ -8794,19 +8794,19 @@
         <v>450733</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>421751</v>
+        <v>421098</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>476326</v>
+        <v>473676</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.6329698283308032</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.5922706651832059</v>
+        <v>0.5913535042036908</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.6689103547518349</v>
+        <v>0.6651887370971176</v>
       </c>
     </row>
     <row r="30">
@@ -8823,19 +8823,19 @@
         <v>141364</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>123090</v>
+        <v>125024</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>158225</v>
+        <v>161659</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.4228279663462521</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.3681701381038158</v>
+        <v>0.3739527771300843</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.473261121863617</v>
+        <v>0.4835299825595903</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>30</v>
@@ -8844,19 +8844,19 @@
         <v>31736</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>20985</v>
+        <v>21883</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>42974</v>
+        <v>44016</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.08401031833979629</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.05555158960181956</v>
+        <v>0.05792787037117647</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.1137601502032623</v>
+        <v>0.116517897798313</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>168</v>
@@ -8865,19 +8865,19 @@
         <v>173100</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>149562</v>
+        <v>151478</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>197539</v>
+        <v>195831</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.2430865383683039</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.2100324989435705</v>
+        <v>0.2127225182302543</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.2774065489946305</v>
+        <v>0.275007903436536</v>
       </c>
     </row>
     <row r="31">
@@ -8894,19 +8894,19 @@
         <v>7564</v>
       </c>
       <c r="E31" s="5" t="n">
-        <v>3502</v>
+        <v>2941</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>15607</v>
+        <v>14800</v>
       </c>
       <c r="G31" s="6" t="n">
         <v>0.02262291629854661</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.01047521223973508</v>
+        <v>0.008798073130844465</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.04668236267109717</v>
+        <v>0.04426745993057703</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>3</v>
@@ -8915,19 +8915,19 @@
         <v>3045</v>
       </c>
       <c r="L31" s="5" t="n">
-        <v>991</v>
+        <v>993</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>9171</v>
+        <v>9091</v>
       </c>
       <c r="N31" s="6" t="n">
         <v>0.008060192040080745</v>
       </c>
       <c r="O31" s="6" t="n">
-        <v>0.00262418014882463</v>
+        <v>0.00262732850370776</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.02427668260594629</v>
+        <v>0.02406455136087534</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>10</v>
@@ -8936,19 +8936,19 @@
         <v>10608</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>4962</v>
+        <v>5126</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>19113</v>
+        <v>18616</v>
       </c>
       <c r="U31" s="6" t="n">
         <v>0.014897448428538</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.006968040420817179</v>
+        <v>0.007198454785745038</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.02684014479294357</v>
+        <v>0.02614242287178319</v>
       </c>
     </row>
     <row r="32">
@@ -8965,19 +8965,19 @@
         <v>50668</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>37982</v>
+        <v>38052</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>64430</v>
+        <v>64805</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.1515517080824423</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.1136067118518692</v>
+        <v>0.1138156639250679</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.1927136000488271</v>
+        <v>0.1938366395407523</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>24</v>
@@ -8986,19 +8986,19 @@
         <v>26983</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>17601</v>
+        <v>18551</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>38410</v>
+        <v>38505</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.0714276011175609</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.04659338992739523</v>
+        <v>0.04910802001445229</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.101678091718706</v>
+        <v>0.1019284190428604</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>72</v>
@@ -9007,19 +9007,19 @@
         <v>77651</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>62116</v>
+        <v>62709</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>98206</v>
+        <v>98672</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.1090461848723549</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.08723031248366381</v>
+        <v>0.08806346600468369</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.1379122671843026</v>
+        <v>0.1385658736570177</v>
       </c>
     </row>
     <row r="33">
@@ -9111,19 +9111,19 @@
         <v>110164</v>
       </c>
       <c r="E34" s="5" t="n">
-        <v>95682</v>
+        <v>96030</v>
       </c>
       <c r="F34" s="5" t="n">
-        <v>124152</v>
+        <v>123960</v>
       </c>
       <c r="G34" s="6" t="n">
         <v>0.4301038433229104</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>0.3735625738208687</v>
+        <v>0.3749221332163108</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>0.4847165189101704</v>
+        <v>0.483966782684935</v>
       </c>
       <c r="J34" s="5" t="n">
         <v>291</v>
@@ -9132,19 +9132,19 @@
         <v>386503</v>
       </c>
       <c r="L34" s="5" t="n">
-        <v>375130</v>
+        <v>376489</v>
       </c>
       <c r="M34" s="5" t="n">
-        <v>392401</v>
+        <v>393191</v>
       </c>
       <c r="N34" s="6" t="n">
         <v>0.9689614869436628</v>
       </c>
       <c r="O34" s="6" t="n">
-        <v>0.940448214570949</v>
+        <v>0.9438550063308525</v>
       </c>
       <c r="P34" s="6" t="n">
-        <v>0.9837466153504069</v>
+        <v>0.9857266450326996</v>
       </c>
       <c r="Q34" s="5" t="n">
         <v>421</v>
@@ -9153,19 +9153,19 @@
         <v>496667</v>
       </c>
       <c r="S34" s="5" t="n">
-        <v>476085</v>
+        <v>473386</v>
       </c>
       <c r="T34" s="5" t="n">
-        <v>517878</v>
+        <v>516481</v>
       </c>
       <c r="U34" s="6" t="n">
         <v>0.7582502696939899</v>
       </c>
       <c r="V34" s="6" t="n">
-        <v>0.7268290642414097</v>
+        <v>0.7227083887446811</v>
       </c>
       <c r="W34" s="6" t="n">
-        <v>0.7906334107833902</v>
+        <v>0.7884996786993995</v>
       </c>
     </row>
     <row r="35">
@@ -9182,19 +9182,19 @@
         <v>121351</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>106196</v>
+        <v>106719</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>135901</v>
+        <v>134756</v>
       </c>
       <c r="G35" s="6" t="n">
         <v>0.4737795076288732</v>
       </c>
       <c r="H35" s="6" t="n">
-        <v>0.4146124965454201</v>
+        <v>0.4166531010667129</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>0.5305862046015108</v>
+        <v>0.5261161355913341</v>
       </c>
       <c r="J35" s="5" t="n">
         <v>3</v>
@@ -9203,19 +9203,19 @@
         <v>4367</v>
       </c>
       <c r="L35" s="5" t="n">
-        <v>1201</v>
+        <v>1211</v>
       </c>
       <c r="M35" s="5" t="n">
-        <v>12421</v>
+        <v>11648</v>
       </c>
       <c r="N35" s="6" t="n">
         <v>0.01094749789763447</v>
       </c>
       <c r="O35" s="6" t="n">
-        <v>0.003011248506111332</v>
+        <v>0.003035666064928964</v>
       </c>
       <c r="P35" s="6" t="n">
-        <v>0.03113971740837333</v>
+        <v>0.02920187442895397</v>
       </c>
       <c r="Q35" s="5" t="n">
         <v>144</v>
@@ -9224,19 +9224,19 @@
         <v>125718</v>
       </c>
       <c r="S35" s="5" t="n">
-        <v>106501</v>
+        <v>106896</v>
       </c>
       <c r="T35" s="5" t="n">
-        <v>145532</v>
+        <v>147999</v>
       </c>
       <c r="U35" s="6" t="n">
         <v>0.1919301698651105</v>
       </c>
       <c r="V35" s="6" t="n">
-        <v>0.1625929764133886</v>
+        <v>0.1631954877027736</v>
       </c>
       <c r="W35" s="6" t="n">
-        <v>0.2221803318990797</v>
+        <v>0.2259468242289558</v>
       </c>
     </row>
     <row r="36">
@@ -9253,19 +9253,19 @@
         <v>5664</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>2438</v>
+        <v>2405</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>10991</v>
+        <v>11346</v>
       </c>
       <c r="G36" s="6" t="n">
         <v>0.02211382221166026</v>
       </c>
       <c r="H36" s="6" t="n">
-        <v>0.00952035473871669</v>
+        <v>0.009388733235242639</v>
       </c>
       <c r="I36" s="6" t="n">
-        <v>0.04291166507309622</v>
+        <v>0.04429716497904971</v>
       </c>
       <c r="J36" s="5" t="n">
         <v>2</v>
@@ -9277,7 +9277,7 @@
         <v>0</v>
       </c>
       <c r="M36" s="5" t="n">
-        <v>9070</v>
+        <v>9216</v>
       </c>
       <c r="N36" s="6" t="n">
         <v>0.00679741767213503</v>
@@ -9286,7 +9286,7 @@
         <v>0</v>
       </c>
       <c r="P36" s="6" t="n">
-        <v>0.02273953363087765</v>
+        <v>0.02310355841092969</v>
       </c>
       <c r="Q36" s="5" t="n">
         <v>9</v>
@@ -9295,19 +9295,19 @@
         <v>8375</v>
       </c>
       <c r="S36" s="5" t="n">
-        <v>4002</v>
+        <v>4075</v>
       </c>
       <c r="T36" s="5" t="n">
-        <v>15466</v>
+        <v>15528</v>
       </c>
       <c r="U36" s="6" t="n">
         <v>0.01278664002541981</v>
       </c>
       <c r="V36" s="6" t="n">
-        <v>0.00611029630475971</v>
+        <v>0.006221049207274829</v>
       </c>
       <c r="W36" s="6" t="n">
-        <v>0.02361146195856698</v>
+        <v>0.02370660781703266</v>
       </c>
     </row>
     <row r="37">
@@ -9324,19 +9324,19 @@
         <v>18955</v>
       </c>
       <c r="E37" s="5" t="n">
-        <v>12824</v>
+        <v>12927</v>
       </c>
       <c r="F37" s="5" t="n">
-        <v>28568</v>
+        <v>28015</v>
       </c>
       <c r="G37" s="6" t="n">
         <v>0.07400282683655623</v>
       </c>
       <c r="H37" s="6" t="n">
-        <v>0.0500676665412107</v>
+        <v>0.05046895650215089</v>
       </c>
       <c r="I37" s="6" t="n">
-        <v>0.111535601215144</v>
+        <v>0.1093751694205584</v>
       </c>
       <c r="J37" s="5" t="n">
         <v>4</v>
@@ -9345,19 +9345,19 @@
         <v>5303</v>
       </c>
       <c r="L37" s="5" t="n">
-        <v>1363</v>
+        <v>1362</v>
       </c>
       <c r="M37" s="5" t="n">
-        <v>13077</v>
+        <v>13483</v>
       </c>
       <c r="N37" s="6" t="n">
         <v>0.01329359748656769</v>
       </c>
       <c r="O37" s="6" t="n">
-        <v>0.003417805033533955</v>
+        <v>0.003414055533272727</v>
       </c>
       <c r="P37" s="6" t="n">
-        <v>0.03278395737115235</v>
+        <v>0.03380248300396189</v>
       </c>
       <c r="Q37" s="5" t="n">
         <v>27</v>
@@ -9366,19 +9366,19 @@
         <v>24257</v>
       </c>
       <c r="S37" s="5" t="n">
-        <v>16835</v>
+        <v>16038</v>
       </c>
       <c r="T37" s="5" t="n">
-        <v>34448</v>
+        <v>34076</v>
       </c>
       <c r="U37" s="6" t="n">
         <v>0.03703292041547975</v>
       </c>
       <c r="V37" s="6" t="n">
-        <v>0.02570168167803074</v>
+        <v>0.02448429538959037</v>
       </c>
       <c r="W37" s="6" t="n">
-        <v>0.05259044042071446</v>
+        <v>0.05202267149395012</v>
       </c>
     </row>
     <row r="38">
@@ -9470,19 +9470,19 @@
         <v>1504736</v>
       </c>
       <c r="E39" s="5" t="n">
-        <v>1450915</v>
+        <v>1448682</v>
       </c>
       <c r="F39" s="5" t="n">
-        <v>1565541</v>
+        <v>1569214</v>
       </c>
       <c r="G39" s="6" t="n">
         <v>0.4435591641651775</v>
       </c>
       <c r="H39" s="6" t="n">
-        <v>0.4276939505521336</v>
+        <v>0.4270358724905596</v>
       </c>
       <c r="I39" s="6" t="n">
-        <v>0.4614828610967788</v>
+        <v>0.4625656026468977</v>
       </c>
       <c r="J39" s="5" t="n">
         <v>2073</v>
@@ -9491,19 +9491,19 @@
         <v>2227448</v>
       </c>
       <c r="L39" s="5" t="n">
-        <v>2166548</v>
+        <v>2163005</v>
       </c>
       <c r="M39" s="5" t="n">
-        <v>2293657</v>
+        <v>2288809</v>
       </c>
       <c r="N39" s="6" t="n">
         <v>0.6293820004551663</v>
       </c>
       <c r="O39" s="6" t="n">
-        <v>0.6121744119064105</v>
+        <v>0.6111731160876189</v>
       </c>
       <c r="P39" s="6" t="n">
-        <v>0.6480899461468816</v>
+        <v>0.6467200417595825</v>
       </c>
       <c r="Q39" s="5" t="n">
         <v>3519</v>
@@ -9512,19 +9512,19 @@
         <v>3732184</v>
       </c>
       <c r="S39" s="5" t="n">
-        <v>3646820</v>
+        <v>3642119</v>
       </c>
       <c r="T39" s="5" t="n">
-        <v>3823369</v>
+        <v>3821386</v>
       </c>
       <c r="U39" s="6" t="n">
         <v>0.5384368402133998</v>
       </c>
       <c r="V39" s="6" t="n">
-        <v>0.5261214922158147</v>
+        <v>0.5254432532434029</v>
       </c>
       <c r="W39" s="6" t="n">
-        <v>0.5515920165910595</v>
+        <v>0.5513058967542152</v>
       </c>
     </row>
     <row r="40">
@@ -9541,19 +9541,19 @@
         <v>697944</v>
       </c>
       <c r="E40" s="5" t="n">
-        <v>647794</v>
+        <v>651839</v>
       </c>
       <c r="F40" s="5" t="n">
-        <v>742728</v>
+        <v>749015</v>
       </c>
       <c r="G40" s="6" t="n">
         <v>0.2057367532602741</v>
       </c>
       <c r="H40" s="6" t="n">
-        <v>0.1909535785553582</v>
+        <v>0.1921459498809383</v>
       </c>
       <c r="I40" s="6" t="n">
-        <v>0.2189378201665188</v>
+        <v>0.2207912818820682</v>
       </c>
       <c r="J40" s="5" t="n">
         <v>365</v>
@@ -9562,19 +9562,19 @@
         <v>387179</v>
       </c>
       <c r="L40" s="5" t="n">
-        <v>351017</v>
+        <v>348383</v>
       </c>
       <c r="M40" s="5" t="n">
-        <v>427816</v>
+        <v>426604</v>
       </c>
       <c r="N40" s="6" t="n">
         <v>0.1094004155006001</v>
       </c>
       <c r="O40" s="6" t="n">
-        <v>0.0991823492206081</v>
+        <v>0.09843825104383849</v>
       </c>
       <c r="P40" s="6" t="n">
-        <v>0.1208826575741407</v>
+        <v>0.1205401677505838</v>
       </c>
       <c r="Q40" s="5" t="n">
         <v>1041</v>
@@ -9583,19 +9583,19 @@
         <v>1085124</v>
       </c>
       <c r="S40" s="5" t="n">
-        <v>1022461</v>
+        <v>1024257</v>
       </c>
       <c r="T40" s="5" t="n">
-        <v>1147943</v>
+        <v>1155420</v>
       </c>
       <c r="U40" s="6" t="n">
         <v>0.1565492151292199</v>
       </c>
       <c r="V40" s="6" t="n">
-        <v>0.1475089852695105</v>
+        <v>0.1477680454844669</v>
       </c>
       <c r="W40" s="6" t="n">
-        <v>0.1656120306510051</v>
+        <v>0.1666907876674958</v>
       </c>
     </row>
     <row r="41">
@@ -9612,19 +9612,19 @@
         <v>93364</v>
       </c>
       <c r="E41" s="5" t="n">
-        <v>75035</v>
+        <v>75049</v>
       </c>
       <c r="F41" s="5" t="n">
-        <v>114060</v>
+        <v>114075</v>
       </c>
       <c r="G41" s="6" t="n">
         <v>0.02752138559501326</v>
       </c>
       <c r="H41" s="6" t="n">
-        <v>0.02211833322008539</v>
+        <v>0.02212258499853472</v>
       </c>
       <c r="I41" s="6" t="n">
-        <v>0.03362208984942767</v>
+        <v>0.03362652390663362</v>
       </c>
       <c r="J41" s="5" t="n">
         <v>72</v>
@@ -9633,19 +9633,19 @@
         <v>74404</v>
       </c>
       <c r="L41" s="5" t="n">
-        <v>59806</v>
+        <v>59067</v>
       </c>
       <c r="M41" s="5" t="n">
-        <v>93822</v>
+        <v>92631</v>
       </c>
       <c r="N41" s="6" t="n">
         <v>0.02102331796683824</v>
       </c>
       <c r="O41" s="6" t="n">
-        <v>0.01689850649786415</v>
+        <v>0.01668995911509733</v>
       </c>
       <c r="P41" s="6" t="n">
-        <v>0.02651008258389173</v>
+        <v>0.02617368020891655</v>
       </c>
       <c r="Q41" s="5" t="n">
         <v>160</v>
@@ -9654,19 +9654,19 @@
         <v>167768</v>
       </c>
       <c r="S41" s="5" t="n">
-        <v>141838</v>
+        <v>144492</v>
       </c>
       <c r="T41" s="5" t="n">
-        <v>192867</v>
+        <v>196162</v>
       </c>
       <c r="U41" s="6" t="n">
         <v>0.02420359340286683</v>
       </c>
       <c r="V41" s="6" t="n">
-        <v>0.02046280894665433</v>
+        <v>0.02084569549200303</v>
       </c>
       <c r="W41" s="6" t="n">
-        <v>0.02782465253678657</v>
+        <v>0.02829997451364542</v>
       </c>
     </row>
     <row r="42">
@@ -9683,19 +9683,19 @@
         <v>1096370</v>
       </c>
       <c r="E42" s="5" t="n">
-        <v>1038189</v>
+        <v>1038130</v>
       </c>
       <c r="F42" s="5" t="n">
-        <v>1154637</v>
+        <v>1152168</v>
       </c>
       <c r="G42" s="6" t="n">
         <v>0.3231826969795352</v>
       </c>
       <c r="H42" s="6" t="n">
-        <v>0.306032476966597</v>
+        <v>0.3060150122681587</v>
       </c>
       <c r="I42" s="6" t="n">
-        <v>0.3403585154711808</v>
+        <v>0.3396307694723886</v>
       </c>
       <c r="J42" s="5" t="n">
         <v>823</v>
@@ -9704,19 +9704,19 @@
         <v>850072</v>
       </c>
       <c r="L42" s="5" t="n">
-        <v>797600</v>
+        <v>795827</v>
       </c>
       <c r="M42" s="5" t="n">
-        <v>902985</v>
+        <v>903719</v>
       </c>
       <c r="N42" s="6" t="n">
         <v>0.2401942660773953</v>
       </c>
       <c r="O42" s="6" t="n">
-        <v>0.2253677320290722</v>
+        <v>0.2248667491576408</v>
       </c>
       <c r="P42" s="6" t="n">
-        <v>0.2551452207169609</v>
+        <v>0.2553526379146115</v>
       </c>
       <c r="Q42" s="5" t="n">
         <v>1842</v>
@@ -9725,19 +9725,19 @@
         <v>1946442</v>
       </c>
       <c r="S42" s="5" t="n">
-        <v>1861219</v>
+        <v>1874671</v>
       </c>
       <c r="T42" s="5" t="n">
-        <v>2019802</v>
+        <v>2033306</v>
       </c>
       <c r="U42" s="6" t="n">
         <v>0.2808103512545135</v>
       </c>
       <c r="V42" s="6" t="n">
-        <v>0.2685153365394617</v>
+        <v>0.2704561020639381</v>
       </c>
       <c r="W42" s="6" t="n">
-        <v>0.2913938707064448</v>
+        <v>0.2933421630511349</v>
       </c>
     </row>
     <row r="43">
